--- a/teste 1.xlsx
+++ b/teste 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="514">
   <si>
     <t>Código do documento</t>
   </si>
@@ -686,9 +686,6 @@
     <t>Submissão de projetos ao GCP</t>
   </si>
   <si>
-    <t>projeto; atividades; analista; informações; pasta; ajuste; concedente; criar;  disco; gcp; receber; submissão; ajustes; assinado; assinatura; assinaturas; assistente; atualizar; GCP; submissão</t>
-  </si>
-  <si>
     <t>BPMN0081:00</t>
   </si>
   <si>
@@ -707,9 +704,6 @@
     <t>Solicitação de Pagamento de Projetos</t>
   </si>
   <si>
-    <t>pagamento; solicitação; solicitante; projeto; formulário; necessidade; projetos; valor; atividades; comprovante; identificar; material; nota; realizar; adicionar; analista; contas; custo; equipamento; escolher; fiscal; fornecedor; passagem; recebimento; serviço;bancária; cadastro; compra; conta; corta; demanda; envio</t>
-  </si>
-  <si>
     <t>BPMN0088:00</t>
   </si>
   <si>
@@ -1545,6 +1539,70 @@
   </si>
   <si>
     <t>https://unifor.qualyteam.com.br/Documento/doc?codigoDocumento=PO%4015%400</t>
+  </si>
+  <si>
+    <t>projeto; atividades; analista; informações; pasta; ajuste; concedente; criar;  disco; gcp; receber; submissão; ajustes; assinado; assinatura; assinaturas; assistente; atualizar; GCP; submissão, projeto; Diplan</t>
+  </si>
+  <si>
+    <t>pagamento; solicitação; solicitante; projeto; formulário; necessidade; projetos; valor; atividades; comprovante; identificar; material; nota; realizar; adicionar; analista; contas; custo; equipamento; escolher; fiscal; fornecedor; passagem; recebimento; serviço;bancária; cadastro; compra; conta; corta; demanda; envio; projeto; Diplan</t>
+  </si>
+  <si>
+    <t>O Book de Processos - VIREX da Universidade de Fortaleza é um documento visual que mapeia os principais processos relacionados à gestão de três áreas específicas: Responsabilidade Social, Arte e Cultura, e Atividades Desportivas. Este book está dividido em três colunas principais, cada uma representando uma área de gestão, onde são listados os subprocessos associados a cada área.
+Gestão da Responsabilidade Social: Nesta seção, são detalhados os processos voltados para a gestão da responsabilidade social da universidade, incluindo a entrega de ações sociais, a definição de grupos de trabalho, e a comunicação externa relacionada ao tema.
+Gestão de Arte e Cultura: Esta coluna apresenta os processos voltados para a promoção e gestão de atividades culturais, como a criação de projetos culturais, a definição de pautas, e a gestão de espaços culturais dentro da universidade.
+Gestão de Atividades Desportivas: Aqui estão mapeados os processos relacionados à gestão de atividades esportivas, abrangendo desde a elaboração de cronogramas de eventos desportivos até a gestão de espaços e eventos esportivos da universidade.</t>
+  </si>
+  <si>
+    <t>O Book de Processos Graduação - CENTRO CCS da Universidade de Fortaleza é um documento que organiza e detalha os principais processos operacionais e administrativos relacionados à graduação no Centro de Ciências da Saúde (CCS). Este book é projetado para servir como uma referência para gestores, colaboradores e outros stakeholders envolvidos na administração e execução das atividades acadêmicas e de suporte no CCS.
+Ao abrir este arquivo, o usuário encontrará:
+Mapeamento dos Processos: Descrição detalhada de cada processo dentro do Centro de Ciências da Saúde, incluindo o fluxo de trabalho, etapas envolvidas, e os responsáveis pela execução de cada fase.
+Organização dos Processos: Os processos são organizados em categorias que facilitam a navegação e compreensão, permitindo que os usuários identifiquem rapidamente o processo que procuram, bem como as instruções para sua execução.
+Documentação e Procedimentos: Instruções e normas associadas a cada processo, que orientam os colaboradores sobre os procedimentos a serem seguidos para garantir a conformidade e eficiência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+O Book de Processos - NEI da Universidade de Fortaleza é um documento que organiza e descreve os processos principais relacionados ao Núcleo de Educação Internacional (NEI). Este book serve como uma referência clara e estruturada para a gestão e execução dos processos que envolvem o apoio ao discente, ao docente, e a gestão de convênios e projetos.
+Ao abrir este arquivo, o usuário encontrará:
+Apoio ao Discente : Detalhamento dos processos voltados para o apoio aos estudantes, incluindo o gerenciamento de intercâmbios e ações de internacionalização.
+Apoio ao Docente : Descrição dos processos relacionados ao apoio aos professores, como a mobilidade acadêmica e a produção docente.
+Convênios e Projeto : Mapeamento dos processos que envolvem a captação e gerenciamento de projetos e convênios, fundamentais para o desenvolvimento das atividades internacionais da universidade.</t>
+  </si>
+  <si>
+    <t>O Book de Processos Graduação - CENTRO CCG da Universidade de Fortaleza é um documento que mapeia e organiza detalhadamente os principais processos operacionais e acadêmicos relacionados à graduação no Centro de Ciências da Gestão (CCG). Este book é uma ferramenta essencial para coordenadores, docentes, gestores e colaboradores, oferecendo uma visão clara e estruturada dos fluxos de trabalho envolvidos na administração dos cursos de graduação.
+Ao abrir este arquivo, o usuário encontrará:
+Planejamento de Cursos e Desenvolvimento de Curso: Inclui processos como a gestão da oferta de cursos, desenvolvimento de projetos pedagógicos, documentação legal e governança, além da proposta e gestão de novos cursos.
+Gestão Docente: Detalha os processos relacionados à gestão do corpo docente, abordando aspectos como a supervisão e apoio aos professores.
+Captação/Matrícula: Mapeia os processos que envolvem a matrícula de novos alunos e a orientação de veteranos.
+Experiências de Ensino-Aprendizagem: Descreve processos pedagógicos e de extensão, como o planejamento e execução de aulas, gestão de Trabalhos de Conclusão de Curso (TCC), projetos de extensão e eventos acadêmicos.
+Relacionamento com Aluno: Inclui processos focados no atendimento e acompanhamento do aluno, análise de processos acadêmicos, gestão de agendamentos e suporte ao Programa de Acompanhamento Pedagógico (PAP).
+Núcleos de Prática Profissional: Detalha a gestão dos núcleos de prática profissional, essenciais para a aplicação prática dos conhecimentos adquiridos pelos alunos.
+Gestão de Carreiras: Mapeia os processos que envolvem a supervisão de estágios, tanto obrigatórios quanto não obrigatórios, e o apoio ao desenvolvimento de carreiras dos alunos.</t>
+  </si>
+  <si>
+    <t>O Book de Processos da Coordenação Geral de Educação a Distância (EaD) da Universidade de Fortaleza é um documento que organiza e detalha os processos operacionais relacionados à gestão da educação a distância. Este book é uma referência essencial para a coordenação e supervisão das atividades de EaD, assegurando a qualidade e a eficiência no planejamento, execução e acompanhamento dos cursos oferecidos.
+Ao abrir este arquivo, o usuário encontrará:
+Supervisão de Planejamento e Operações EaD: Detalha os processos relacionados ao planejamento estratégico das operações de EaD, incluindo o desenvolvimento de materiais, acompanhamento de cursos, gestão de cronogramas e a melhoria contínua dos processos e fluxos de trabalho.
+Supervisão de Ensino e Aprendizagem (Polo EaD): Descreve os processos focados na supervisão da experiência de ensino e aprendizagem nos polos de EaD, como a jornada do tutor, a gestão dos estudantes, a execução das atividades de ensino, e o acompanhamento de resultados.
+Supervisão de Recursos e Projetos em EaD: Organiza os processos relacionados à gestão de recursos e projetos na EaD, incluindo a gestão de plataformas virtuais, suporte ao estudante, criação e revisão de materiais educacionais, bem como o gerenciamento de recursos tecnológicos e humanos necessários para a operação dos cursos a distância.</t>
+  </si>
+  <si>
+    <t>O Book de Processos da Coordenação Geral de Educação a Distância (EaD) da Universidade de Fortaleza é um guia abrangente que organiza e descreve os principais processos operacionais e administrativos que suportam a gestão da educação a distância na instituição. Este book é essencial para garantir que as atividades de EaD sejam conduzidas de forma eficiente, padronizada e alinhada com os objetivos institucionais.
+Ao abrir este arquivo, o usuário encontrará:
+Supervisão de Planejamento e Operações EaD: Esta seção cobre processos estratégicos e operacionais relacionados ao planejamento e execução das atividades de EaD, como a gestão de cronogramas, o desenvolvimento e revisão de materiais de ensino, e o acompanhamento das operações educacionais.
+Supervisão de Ensino e Aprendizagem (Polo EaD): Aqui são detalhados os processos relacionados ao suporte e acompanhamento da experiência de ensino nos polos de EaD. Isso inclui a jornada do tutor, a gestão do corpo discente, e a implementação das atividades acadêmicas.
+Supervisão de Recursos e Projetos em EaD: Esta seção abrange a gestão de recursos e projetos específicos para EaD, incluindo a administração de plataformas educacionais, o suporte aos estudantes, a produção e revisão de materiais educacionais, e a supervisão dos recursos tecnológicos e humanos necessários para a operação dos cursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Book de Processos Graduação - CENTRO CCJ da Universidade de Fortaleza é um documento detalhado que organiza e descreve os processos essenciais relacionados à gestão da graduação no Centro de Ciências Jurídicas (CCJ). Este book serve como um guia fundamental para coordenadores, docentes, gestores e demais colaboradores, proporcionando uma visão clara e organizada dos fluxos de trabalho envolvidos na administração e operação dos cursos de graduação.
+Ao abrir este arquivo, o usuário encontrará:
+1. Planejamento de Cursos e Desenvolvimento de Curso: Inclui processos relacionados à gestão da matrícula, desenvolvimento dos projetos pedagógicos, documentação legal, governança, e a proposta e gestão de novos cursos.
+2. Gestão Docente: Detalha os processos relacionados à supervisão e apoio ao corpo docente, garantindo a qualidade e a conformidade das atividades acadêmicas.
+3. Captação/Matrícula: Mapeia os processos de matrícula de veteranos e orientação de ingressantes, essenciais para a organização e gestão do corpo discente.
+4. Experiências de Ensino-Aprendizagem: Descreve os processos pedagógicos, incluindo a condução das aulas, gestão de Trabalhos de Conclusão de Curso (TCC), projetos de pesquisa e extensão, e a criação de cursos de curta duração e eventos acadêmicos.
+5. Relacionamento com Aluno: Detalha os processos voltados ao atendimento e suporte aos alunos, análise de processos acadêmicos, e gestão de agendamentos e reservas de espaços do centro.
+6. Núcleos de Prática Profissional: Descreve a gestão dos núcleos de prática profissional, fundamentais para a aplicação prática dos conhecimentos adquiridos pelos alunos no curso de Direito.
+7. Gestão de Carreiras: Organiza os processos de supervisão de estágios obrigatórios e não obrigatórios, além de outras atividades relacionadas ao desenvolvimento de carreiras dos estudantes.
+</t>
   </si>
 </sst>
 </file>
@@ -1668,16 +1726,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1730,31 +1785,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1787,8 +1831,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1798,7 +1840,39 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2017,15 +2091,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="3" width="92.7109375" customWidth="1"/>
-    <col min="4" max="4" width="79" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="92.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="92.7109375" customWidth="1"/>
+    <col min="4" max="4" width="79" style="46" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -2033,16 +2108,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2051,2900 +2126,2900 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>403</v>
+      <c r="G1" s="47" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="165.75" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="26">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="150.75" thickBot="1">
+      <c r="A3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="21" t="s">
+    </row>
+    <row r="4" spans="1:26" ht="409.6" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="31">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="150.75" thickBot="1">
-      <c r="A3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="60.75" thickBot="1">
-      <c r="A4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="G4" s="26">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="409.6" thickBot="1">
+      <c r="A5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="53" t="s">
         <v>393</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F5" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="G5" s="27">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="390.75" thickBot="1">
+      <c r="A6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="G4" s="31">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="75.75" thickBot="1">
-      <c r="A5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="F6" s="52" t="s">
+        <v>509</v>
+      </c>
+      <c r="G6" s="26">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="409.6" thickBot="1">
+      <c r="A7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="53" t="s">
         <v>395</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G5" s="32">
-        <v>45513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="60.75" thickBot="1">
-      <c r="A6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="F7" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="G7" s="27">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="409.6" thickBot="1">
+      <c r="A8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G6" s="31">
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="75.75" thickBot="1">
-      <c r="A7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="F8" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="G8" s="26">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="409.6" thickBot="1">
+      <c r="A9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G7" s="32">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="75.75" thickBot="1">
-      <c r="A8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="F9" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="G9" s="26">
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="409.6" thickBot="1">
+      <c r="A10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G8" s="31">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="75.75" thickBot="1">
-      <c r="A9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="F10" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="G10" s="26">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="75.75" thickBot="1">
+      <c r="A11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="E11" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G9" s="31">
-        <v>45489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="90.75" thickBot="1">
-      <c r="A10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G10" s="31">
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="75.75" thickBot="1">
-      <c r="A11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G11" s="31">
+      <c r="F11" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="26">
         <v>44740</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="60">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="26">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="75">
+      <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" s="31">
+        <v>45248</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" ht="75">
+      <c r="A14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G12" s="31">
-        <v>44893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="75">
-      <c r="A13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="36" t="s">
+      <c r="F14" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14" s="26">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="57">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G13" s="37">
-        <v>45248</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="75">
-      <c r="A14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="F15" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G15" s="34">
+        <v>44890</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" ht="45">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G16" s="34">
+        <v>44890</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+    </row>
+    <row r="17" spans="1:26" s="38" customFormat="1" ht="60">
+      <c r="A17" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G14" s="31">
+      <c r="E17" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G17" s="34">
         <v>44890</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="57">
-      <c r="A15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G15" s="40">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+    </row>
+    <row r="18" spans="1:26" ht="57.75">
+      <c r="A18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G18" s="34">
         <v>44890</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" ht="45">
-      <c r="A16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G16" s="40">
+    </row>
+    <row r="19" spans="1:26" ht="60">
+      <c r="A19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="48">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="72">
+      <c r="A20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G20" s="26">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="57.75">
+      <c r="A21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G21" s="26">
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="60">
+      <c r="A22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G22" s="26">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="72">
+      <c r="A23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G23" s="26">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="71.25">
+      <c r="A24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G24" s="26">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="86.25">
+      <c r="A25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G25" s="26">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="57.75">
+      <c r="A26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G26" s="26">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="57.75">
+      <c r="A27" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G27" s="26">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="57.75">
+      <c r="A28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G28" s="26">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="57.75">
+      <c r="A29" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G29" s="26">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="72">
+      <c r="A30" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G30" s="26">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="72">
+      <c r="A31" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G31" s="26">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="72">
+      <c r="A32" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G32" s="26">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45">
+      <c r="A33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G33" s="26">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="72">
+      <c r="A34" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G34" s="26">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="72">
+      <c r="A35" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G35" s="26">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="57.75">
+      <c r="A36" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G36" s="26">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45">
+      <c r="A37" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G37" s="26">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="57.75">
+      <c r="A38" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G38" s="26">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="57.75">
+      <c r="A39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G39" s="26">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="57.75">
+      <c r="A40" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G40" s="26">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="57.75">
+      <c r="A41" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G41" s="26">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="57.75">
+      <c r="A42" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G42" s="49">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="72">
+      <c r="A43" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G43" s="26">
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="57.75">
+      <c r="A44" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G44" s="26">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="72">
+      <c r="A45" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G45" s="26">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="57.75">
+      <c r="A46" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G46" s="26">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="57.75">
+      <c r="A47" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" s="26">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="72">
+      <c r="A48" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G48" s="50">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="57.75">
+      <c r="A49" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G49" s="26">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="57.75">
+      <c r="A50" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G50" s="48">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="57.75">
+      <c r="A51" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G51" s="26">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45">
+      <c r="A52" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G52" s="26">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="72">
+      <c r="A53" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G53" s="26">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="72">
+      <c r="A54" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G54" s="26">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="72">
+      <c r="A55" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G55" s="26">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="57.75">
+      <c r="A56" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G56" s="26">
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="72">
+      <c r="A57" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G57" s="26">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="72">
+      <c r="A58" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58" s="26">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45">
+      <c r="A59" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G59" s="26">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="57.75">
+      <c r="A60" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G60" s="26">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="45">
+      <c r="A61" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G61" s="26">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="72">
+      <c r="A62" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G62" s="26">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="57.75">
+      <c r="A63" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G63" s="26">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="45">
+      <c r="A64" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G64" s="26">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="57.75">
+      <c r="A65" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G65" s="26">
         <v>44890</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="1:26" s="44" customFormat="1" ht="60">
-      <c r="A17" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>410</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G17" s="40">
+    </row>
+    <row r="66" spans="1:26" ht="72">
+      <c r="A66" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G66" s="26">
+        <v>45168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="72">
+      <c r="A67" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G67" s="26">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="45">
+      <c r="A68" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G68" s="26">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="57.75">
+      <c r="A69" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G69" s="26">
         <v>44890</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-    </row>
-    <row r="18" spans="1:26" ht="57.75">
-      <c r="A18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G18" s="40">
+    </row>
+    <row r="70" spans="1:26" ht="45">
+      <c r="A70" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G70" s="26">
         <v>44890</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="60">
-      <c r="A19" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+    </row>
+    <row r="71" spans="1:26" ht="45">
+      <c r="A71" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G19" s="46">
-        <v>44894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="72">
-      <c r="A20" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E71" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G71" s="26">
+        <v>44890</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="13"/>
+    </row>
+    <row r="72" spans="1:26" ht="45">
+      <c r="A72" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G72" s="26">
+        <v>44890</v>
+      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+    </row>
+    <row r="73" spans="1:26" ht="45">
+      <c r="A73" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D73" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G20" s="30">
-        <v>45075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="57.75">
-      <c r="A21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G21" s="30">
-        <v>44711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="60">
-      <c r="A22" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G22" s="30">
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="72">
-      <c r="A23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G23" s="30">
-        <v>44959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="71.25">
-      <c r="A24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G24" s="31">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="86.25">
-      <c r="A25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G25" s="30">
-        <v>44796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="57.75">
-      <c r="A26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G26" s="30">
-        <v>45134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="57.75">
-      <c r="A27" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G27" s="30">
-        <v>45135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="57.75">
-      <c r="A28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G28" s="30">
-        <v>45500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="57.75">
-      <c r="A29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G29" s="30">
-        <v>45500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="72">
-      <c r="A30" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G30" s="30">
-        <v>45500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="72">
-      <c r="A31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G31" s="30">
-        <v>45061</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="72">
-      <c r="A32" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G32" s="30">
-        <v>45061</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45">
-      <c r="A33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G33" s="30">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="72">
-      <c r="A34" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G34" s="30">
-        <v>45126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="72">
-      <c r="A35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G35" s="30">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="57.75">
-      <c r="A36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G36" s="30">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="45">
-      <c r="A37" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G37" s="30">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="57.75">
-      <c r="A38" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G38" s="30">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="57.75">
-      <c r="A39" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G39" s="30">
-        <v>45201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="57.75">
-      <c r="A40" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G40" s="30">
-        <v>45201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="57.75">
-      <c r="A41" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G41" s="30">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="57.75">
-      <c r="A42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G42" s="47">
-        <v>45175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="72">
-      <c r="A43" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G43" s="30">
-        <v>44797</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="57.75">
-      <c r="A44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G44" s="30">
-        <v>45142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="72">
-      <c r="A45" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G45" s="30">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="57.75">
-      <c r="A46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G46" s="30">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="57.75">
-      <c r="A47" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G47" s="30">
-        <v>44361</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="72">
-      <c r="A48" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>440</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G48" s="48">
-        <v>45180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="57.75">
-      <c r="A49" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G49" s="30">
-        <v>45177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="57.75">
-      <c r="A50" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G50" s="46">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="57.75">
-      <c r="A51" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G51" s="30">
-        <v>45169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="45">
-      <c r="A52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G52" s="30">
-        <v>45194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="72">
-      <c r="A53" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="E73" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G73" s="26">
+        <v>44890</v>
+      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+    </row>
+    <row r="74" spans="1:26" ht="45">
+      <c r="A74" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D74" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G53" s="30">
-        <v>45243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="72">
-      <c r="A54" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G54" s="30">
-        <v>45243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="72">
-      <c r="A55" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>447</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G55" s="30">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="57.75">
-      <c r="A56" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G56" s="30">
-        <v>45244</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="72">
-      <c r="A57" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G57" s="30">
-        <v>45247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="72">
-      <c r="A58" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>450</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G58" s="30">
-        <v>45223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="45">
-      <c r="A59" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G59" s="30">
-        <v>45423</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="57.75">
-      <c r="A60" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G60" s="30">
-        <v>45423</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="45">
-      <c r="A61" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G61" s="30">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="72">
-      <c r="A62" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G62" s="30">
-        <v>45478</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="57.75">
-      <c r="A63" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G63" s="30">
-        <v>45498</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="45">
-      <c r="A64" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G64" s="30">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" ht="57.75">
-      <c r="A65" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G65" s="30">
-        <v>44890</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" ht="72">
-      <c r="A66" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G66" s="30">
-        <v>45168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" ht="72">
-      <c r="A67" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G67" s="30">
-        <v>45187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" ht="45">
-      <c r="A68" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G68" s="30">
-        <v>44901</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" ht="57.75">
-      <c r="A69" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G69" s="30">
-        <v>44890</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" ht="45">
-      <c r="A70" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" s="50" t="s">
-        <v>462</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G70" s="30">
-        <v>44890</v>
-      </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="14"/>
-      <c r="W70" s="14"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="14"/>
-      <c r="Z70" s="14"/>
-    </row>
-    <row r="71" spans="1:26" ht="45">
-      <c r="A71" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="50" t="s">
-        <v>463</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G71" s="30">
-        <v>44890</v>
-      </c>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="14"/>
-      <c r="W71" s="14"/>
-      <c r="X71" s="14"/>
-      <c r="Y71" s="14"/>
-      <c r="Z71" s="14"/>
-    </row>
-    <row r="72" spans="1:26" ht="45">
-      <c r="A72" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E72" s="50" t="s">
+      <c r="E74" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="F72" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G72" s="30">
-        <v>44890</v>
-      </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
-      <c r="T72" s="14"/>
-      <c r="U72" s="14"/>
-      <c r="V72" s="14"/>
-      <c r="W72" s="14"/>
-      <c r="X72" s="14"/>
-      <c r="Y72" s="14"/>
-      <c r="Z72" s="14"/>
-    </row>
-    <row r="73" spans="1:26" ht="45">
-      <c r="A73" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" s="50" t="s">
-        <v>465</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G73" s="30">
-        <v>44890</v>
-      </c>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="14"/>
-      <c r="W73" s="14"/>
-      <c r="X73" s="14"/>
-      <c r="Y73" s="14"/>
-      <c r="Z73" s="14"/>
-    </row>
-    <row r="74" spans="1:26" ht="45">
-      <c r="A74" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E74" s="50" t="s">
-        <v>466</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>394</v>
+      <c r="F74" s="18" t="s">
+        <v>392</v>
       </c>
       <c r="G74" s="51">
         <v>44902</v>
       </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="14"/>
-      <c r="W74" s="14"/>
-      <c r="X74" s="14"/>
-      <c r="Y74" s="14"/>
-      <c r="Z74" s="14"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
     </row>
     <row r="75" spans="1:26" ht="45">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="D75" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E75" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>394</v>
+      <c r="E75" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>392</v>
       </c>
       <c r="G75" s="51">
         <v>44958</v>
       </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="14"/>
-      <c r="W75" s="14"/>
-      <c r="X75" s="14"/>
-      <c r="Y75" s="14"/>
-      <c r="Z75" s="14"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
     </row>
     <row r="76" spans="1:26" ht="57.75">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="D76" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="E76" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G76" s="26">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="57.75">
+      <c r="A77" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="B77" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="C77" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G77" s="26">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="57.75">
+      <c r="A78" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="F76" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G76" s="30">
+      <c r="F78" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G78" s="26">
         <v>44890</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="57.75">
-      <c r="A77" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E77" s="38" t="s">
+    <row r="79" spans="1:26" ht="72">
+      <c r="A79" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E79" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="F77" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G77" s="30">
+      <c r="F79" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G79" s="26">
         <v>44890</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="57.75">
-      <c r="A78" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E78" s="38" t="s">
+    <row r="80" spans="1:26" ht="57.75">
+      <c r="A80" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="F78" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G78" s="30">
+      <c r="F80" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G80" s="26">
         <v>44890</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="72">
-      <c r="A79" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E79" s="38" t="s">
+    <row r="81" spans="1:26" ht="72">
+      <c r="A81" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E81" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="F79" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G79" s="30">
-        <v>44890</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" ht="57.75">
-      <c r="A80" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E80" s="38" t="s">
+      <c r="F81" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G81" s="26">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="72">
+      <c r="A82" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E82" s="32" t="s">
         <v>472</v>
       </c>
-      <c r="F80" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G80" s="30">
-        <v>44890</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" ht="72">
-      <c r="A81" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="F82" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G82" s="26">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="57.75">
+      <c r="A83" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E81" s="38" t="s">
+      <c r="E83" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="F81" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G81" s="30">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" ht="72">
-      <c r="A82" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E82" s="38" t="s">
+      <c r="F83" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G83" s="26">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" ht="45">
+      <c r="A84" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="F82" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G82" s="30">
-        <v>45159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" ht="57.75">
-      <c r="A83" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E83" s="49" t="s">
-        <v>475</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G83" s="30">
-        <v>45159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" ht="45">
-      <c r="A84" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E84" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>394</v>
+      <c r="F84" s="18" t="s">
+        <v>392</v>
       </c>
       <c r="G84" s="51">
         <v>44890</v>
       </c>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="14"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="14"/>
-      <c r="Y84" s="14"/>
-      <c r="Z84" s="14"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
     </row>
     <row r="85" spans="1:26" ht="57.75">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="D85" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G85" s="26">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="72">
+      <c r="A86" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="B86" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="C86" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E85" s="38" t="s">
+      <c r="E86" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G86" s="26">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="72">
+      <c r="A87" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="F85" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G85" s="30">
+      <c r="F87" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G87" s="26">
         <v>45163</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="72">
-      <c r="A86" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E86" s="7" t="s">
+    <row r="88" spans="1:26" ht="45">
+      <c r="A88" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="E88" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="F86" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G86" s="30">
-        <v>45166</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" ht="72">
-      <c r="A87" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>479</v>
-      </c>
-      <c r="F87" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G87" s="30">
-        <v>45163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" ht="45">
-      <c r="A88" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="E88" s="50" t="s">
-        <v>480</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>394</v>
+      <c r="F88" s="18" t="s">
+        <v>392</v>
       </c>
       <c r="G88" s="51">
         <v>44888</v>
       </c>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="14"/>
-      <c r="T88" s="14"/>
-      <c r="U88" s="14"/>
-      <c r="V88" s="14"/>
-      <c r="W88" s="14"/>
-      <c r="X88" s="14"/>
-      <c r="Y88" s="14"/>
-      <c r="Z88" s="14"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
+      <c r="X88" s="13"/>
+      <c r="Y88" s="13"/>
+      <c r="Z88" s="13"/>
     </row>
     <row r="89" spans="1:26" ht="72">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="D89" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G89" s="48">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="72">
+      <c r="A90" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="B90" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="C90" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G90" s="26">
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" ht="72">
+      <c r="A91" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E89" s="49" t="s">
+      <c r="E91" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="F89" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G89" s="46">
-        <v>44946</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" ht="72">
-      <c r="A90" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E90" s="38" t="s">
+      <c r="F91" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G91" s="48">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" ht="45">
+      <c r="A92" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="F90" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G90" s="30">
-        <v>45494</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" ht="72">
-      <c r="A91" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" s="7" t="s">
+      <c r="F92" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G92" s="26">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="45">
+      <c r="A93" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E93" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="F91" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G91" s="46">
-        <v>45104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" ht="45">
-      <c r="A92" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="38" t="s">
+      <c r="F93" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G93" s="26">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" ht="45">
+      <c r="A94" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D94" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="42" t="s">
         <v>484</v>
       </c>
-      <c r="F92" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G92" s="30">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" ht="45">
-      <c r="A93" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E93" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G93" s="30">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" ht="45">
-      <c r="A94" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E94" s="50" t="s">
-        <v>486</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>394</v>
+      <c r="F94" s="18" t="s">
+        <v>392</v>
       </c>
       <c r="G94" s="51">
         <v>45146</v>
       </c>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="14"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="14"/>
-      <c r="W94" s="14"/>
-      <c r="X94" s="14"/>
-      <c r="Y94" s="14"/>
-      <c r="Z94" s="14"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="13"/>
+      <c r="X94" s="13"/>
+      <c r="Y94" s="13"/>
+      <c r="Z94" s="13"/>
     </row>
     <row r="95" spans="1:26" ht="45">
-      <c r="A95" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="C95" s="17" t="s">
+      <c r="A95" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="B95" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="C95" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D95" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="E95" s="50" t="s">
-        <v>487</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>394</v>
+      <c r="E95" s="42" t="s">
+        <v>485</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>392</v>
       </c>
       <c r="G95" s="51">
         <v>45146</v>
       </c>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="14"/>
-      <c r="U95" s="14"/>
-      <c r="V95" s="14"/>
-      <c r="W95" s="14"/>
-      <c r="X95" s="14"/>
-      <c r="Y95" s="14"/>
-      <c r="Z95" s="14"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="13"/>
+      <c r="V95" s="13"/>
+      <c r="W95" s="13"/>
+      <c r="X95" s="13"/>
+      <c r="Y95" s="13"/>
+      <c r="Z95" s="13"/>
     </row>
     <row r="96" spans="1:26" ht="45">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="D96" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G96" s="26">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="86.25">
+      <c r="A97" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="B97" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="C97" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="38" t="s">
+      <c r="E97" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G97" s="26">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="72">
+      <c r="A98" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F96" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G96" s="30">
-        <v>45225</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="86.25">
-      <c r="A97" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="F98" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G98" s="26">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="57.75">
+      <c r="A99" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G99" s="26">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="57.75">
+      <c r="A100" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G100" s="26">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="72">
+      <c r="A101" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="F97" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G97" s="30">
-        <v>45225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="72">
-      <c r="A98" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="E101" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G101" s="26">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="72">
+      <c r="A102" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G98" s="30">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="57.75">
-      <c r="A99" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E99" s="38" t="s">
-        <v>491</v>
-      </c>
-      <c r="F99" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G99" s="30">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="57.75">
-      <c r="A100" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E100" s="38" t="s">
+      <c r="E102" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="F100" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G100" s="30">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="72">
-      <c r="A101" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="D101" s="4" t="s">
+      <c r="F102" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G102" s="26">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="72">
+      <c r="A103" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G103" s="26">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="72">
+      <c r="A104" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G104" s="26">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="72">
+      <c r="A105" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G105" s="26">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="45">
+      <c r="A106" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G106" s="26">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="57.75">
+      <c r="A107" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G107" s="26">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="57.75">
+      <c r="A108" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G101" s="30">
-        <v>45271</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="72">
-      <c r="A102" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D102" s="4" t="s">
+      <c r="E108" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G108" s="26">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="57.75">
+      <c r="A109" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="F102" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G102" s="30">
-        <v>45271</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="72">
-      <c r="A103" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E103" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="F103" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G103" s="30">
-        <v>45190</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="72">
-      <c r="A104" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E104" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="F104" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G104" s="30">
-        <v>44876</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="72">
-      <c r="A105" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G105" s="30">
-        <v>44876</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="45">
-      <c r="A106" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G106" s="30">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="57.75">
-      <c r="A107" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E107" s="38" t="s">
+      <c r="E109" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="F107" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G107" s="30">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="57.75">
-      <c r="A108" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D108" s="4" t="s">
+      <c r="F109" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G109" s="26">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="57.75">
+      <c r="A110" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D110" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="38" t="s">
+      <c r="E110" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F108" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G108" s="30">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="57.75">
-      <c r="A109" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D109" s="4" t="s">
+      <c r="F110" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G110" s="26">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="72">
+      <c r="A111" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D111" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="38" t="s">
+      <c r="E111" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="F109" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G109" s="30">
+      <c r="F111" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G111" s="26">
         <v>45145</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="57.75">
-      <c r="A110" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="38" t="s">
+    <row r="112" spans="1:7" ht="45">
+      <c r="A112" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E112" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="F110" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G110" s="30">
-        <v>45145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="72">
-      <c r="A111" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="38" t="s">
+      <c r="F112" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G112" s="26">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="72">
+      <c r="A113" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E113" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="F111" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G111" s="30">
-        <v>45145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="45">
-      <c r="A112" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E112" s="38" t="s">
+      <c r="F113" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G113" s="26">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="72">
+      <c r="A114" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E114" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="F112" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G112" s="30">
-        <v>44844</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="72">
-      <c r="A113" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="D113" s="4" t="s">
+      <c r="F114" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G114" s="26">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="72">
+      <c r="A115" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E113" s="38" t="s">
+      <c r="E115" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="F113" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G113" s="30">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="72">
-      <c r="A114" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="E114" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="F114" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G114" s="30">
-        <v>44860</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="72">
-      <c r="A115" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E115" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="F115" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G115" s="30">
+      <c r="F115" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="G115" s="26">
         <v>45464</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1">
-      <c r="E116" s="4"/>
+      <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="118" spans="1:7" ht="15.75" customHeight="1"/>
@@ -5850,8 +5925,14 @@
     <hyperlink ref="E40" r:id="rId16"/>
     <hyperlink ref="E55" r:id="rId17"/>
     <hyperlink ref="E58" r:id="rId18"/>
+    <hyperlink ref="E4" r:id="rId19"/>
+    <hyperlink ref="E5" r:id="rId20"/>
+    <hyperlink ref="E6" r:id="rId21"/>
+    <hyperlink ref="E7" r:id="rId22"/>
+    <hyperlink ref="E9" r:id="rId23"/>
+    <hyperlink ref="E10" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/teste 1.xlsx
+++ b/teste 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="515">
   <si>
     <t>Código do documento</t>
   </si>
@@ -47,9 +47,6 @@
     <t>BP0002:01</t>
   </si>
   <si>
-    <t>Book de Processos DTec</t>
-  </si>
-  <si>
     <t>DTEC</t>
   </si>
   <si>
@@ -62,12 +59,6 @@
     <t>BP0004:01</t>
   </si>
   <si>
-    <t>Book de Processos Graduação - CENTRO CCT</t>
-  </si>
-  <si>
-    <t>gestão; curso; processo; processos; diretor; docente; aluno; cct; centro; cursos; obrigatório; prática; acadêmicos; agendamentos; aguardando; andamento; aprendizagem; atendimento; aula; autor; bizagi; book; bossa; carreiras; central; chaves; coordenador; descrição; desenvolvimento; direta; documentação; dono; elaboração</t>
-  </si>
-  <si>
     <t>VRE</t>
   </si>
   <si>
@@ -77,60 +68,30 @@
     <t>BP0006:00</t>
   </si>
   <si>
-    <t>Book de Processos - VIREX</t>
-  </si>
-  <si>
-    <t>divisão; chefia; arte; cultura; responsabilidade; atividades; projeto; social; ação; processos; desportiva; captação; gestão; atividade; book; custos; elaboração; eventos; execução; financiamento; priorizados; processo; aguardando; andamento; avaliação; bizagi; campus; chaves; cientes; citados; controle</t>
-  </si>
-  <si>
     <t>VIREX</t>
   </si>
   <si>
     <t>BP0007:00</t>
   </si>
   <si>
-    <t>Book de Processos Graduação - CENTRO CCS</t>
-  </si>
-  <si>
-    <t>gestão; gestor; centro; bizagi; clínica; processos; clinica; coordenador; curso; diretor; nami; odontologia; cursos; docente; ensino; supervisor; planejamento; estágio; financeira; pessoas; prática; revisão; aproveitamento; atendimento; direção; manutenção; resultados; acompanhamento; agendamento; aprendizagem; clínicos; criação; diagnóstico; laboratório; projeto; projetos; protocolos; suprimentos; análise; assessor; atualização; aula; curricularizada</t>
-  </si>
-  <si>
     <t>CCS</t>
   </si>
   <si>
     <t>BP0008:00</t>
   </si>
   <si>
-    <t>Book de Processos NEI</t>
-  </si>
-  <si>
-    <t>apoio; responsável; discente; docente; projetos; convênios; gestor; processos; acadêmica; aguardando; andamento; aprovado; autor; ações; bizagi; book; captação; convênio; descrição; dono; elaboração; gerenciamento; internacionalização; intercâmbio; legenda; mobilidade; priorizados; processo; produção; universidade; validado; validação; internacional</t>
-  </si>
-  <si>
     <t>DIPLAN, NEI</t>
   </si>
   <si>
     <t>BP0010:00</t>
   </si>
   <si>
-    <t>Book de Processos Graduação - CENTRO CCG</t>
-  </si>
-  <si>
-    <t>curso; centro; alunos; gestão; indicadores; docente; disciplina; fortaleza; fundação; universidade; ccg; geral; média; satisfação; avaliação; coordenador; processos; cumprimento; cursos; enade; índice; aluno; avaliativos; estágio; ponderada; trabalho; acompanhamento; aprendizagem; engajamento; frequência; graduação; matriz; mínimo; nota; núcleo; processo; professor; projetos; sobre; taxa; acadêmica; assessor; atendimento; ciclos; classificados</t>
-  </si>
-  <si>
     <t>CCG</t>
   </si>
   <si>
     <t>BP0011:00</t>
   </si>
   <si>
-    <t>Book de Processos da Coordenação Geral de Educação à Distância</t>
-  </si>
-  <si>
-    <t>supervisor; projetos; ead; operações; processos; acompanhamento; educacionais; planejamento; controle; cursos; elaboração; ensino; gerenciamento; disciplinas; execução; jornada; materiais; polo; supervisão; aprendizagem; bases; book; cm; coordenação; dados; distância; docente; educação; epa; geral; gestão; graduação; monitoramento; objetos; priorizados; processo; produção; recursos; revisão; universidade; validação; acadêmicos; acervo</t>
-  </si>
-  <si>
     <t>EAD</t>
   </si>
   <si>
@@ -140,18 +101,9 @@
     <t>DIPLAN</t>
   </si>
   <si>
-    <t>planejamento; processos; gestão; diretor; coordenador; institucional; projetos; avaliação; avaliações; book; dados; diplan; elaboração; gerente; internas; priorizados; proavi; processo; proteção; total; aguardando; aluno; andamento; análises; aprovado; bizagi; chaves; contas; custos; prestação; diagnósticos; dono; elaborado; experiência; externos; fortaleza; institucionais; integridade; inteligência; interna</t>
-  </si>
-  <si>
     <t>BP0014:00</t>
   </si>
   <si>
-    <t>Book de Processos Graduação - CENTRO CCJ</t>
-  </si>
-  <si>
-    <t>bizagi; gestão; curso; coordenador; revisão; análise; ensino; processos; aproveitamento; estágio; planejamento; supervisor; centro; cursos; monitoria; projeto; acadêmicos; obrigatório; ppc; aprendizagem; atas; atualização; criação; docente; documentação; excepcional; execução; financeira; plano; projetos; secretaria; tratamento; tv; acompanhamento; alunos; aula; avaliativo; ciclo; complementares; cronograma; curriculares; disciplina; diversos; documentos; estratégico; estudo; estudos; extensão</t>
-  </si>
-  <si>
     <t>CCJ</t>
   </si>
   <si>
@@ -1224,9 +1176,6 @@
   </si>
   <si>
     <t>https://unifor.qualyteam.com.br/Documento/doc?codigoDocumento=BPMN%401%401</t>
-  </si>
-  <si>
-    <t>suporte; analista; processos; gestão; software; ti; técnico; coordenador; dados; desenvolvimento; projetos; administração; banco; book; dtec; elaboração; infraestrutura; priorizados; sistemas; supervisor; acessos; administrador; aguardando; andamento; aprovado; atendimento; ativos; backup; bizagi; chaves; computadores; contratos; descontinuidade; dispositivos; dona; estratégico; fortaleza; governança; informação; iniciada; laboratórios</t>
   </si>
   <si>
     <t>Data elaboração</t>
@@ -1604,16 +1553,77 @@
 7. Gestão de Carreiras: Organiza os processos de supervisão de estágios obrigatórios e não obrigatórios, além de outras atividades relacionadas ao desenvolvimento de carreiras dos estudantes.
 </t>
   </si>
+  <si>
+    <t>[DIPLAN] Book de Processos</t>
+  </si>
+  <si>
+    <t>[ DTec ] Book de Processos</t>
+  </si>
+  <si>
+    <t>[CENTRO CCT] Book de Processos Graduação</t>
+  </si>
+  <si>
+    <t>[VIREX] Book de Processos</t>
+  </si>
+  <si>
+    <t>[CENTRO CCS] Book de Processos Graduação</t>
+  </si>
+  <si>
+    <t>[NEI] Book de Processos</t>
+  </si>
+  <si>
+    <t>[CENTRO CCG] Book de Processos Graduação</t>
+  </si>
+  <si>
+    <t>[EAD] Book de Processos da Coordenação Geral de Educação à Distância</t>
+  </si>
+  <si>
+    <t>[CENTRO CCJ] Book de Processos Graduação</t>
+  </si>
+  <si>
+    <t>suporte; analista; processos; gestão; software; ti; técnico; coordenador; dados; desenvolvimento; projetos; administração; banco; book; dtec; elaboração; infraestrutura; priorizados; sistemas; supervisor; acessos; administrador; aguardando; andamento; aprovado; atendimento; ativos; backup; bizagi; chaves; computadores; contratos; descontinuidade; dispositivos; dona; estratégico; fortaleza; governança; informação; iniciada; laboratórios; book</t>
+  </si>
+  <si>
+    <t>gestão; curso; processo; processos; diretor; docente; aluno; cct; centro; cursos; obrigatório; prática; acadêmicos; agendamentos; aguardando; andamento; aprendizagem; atendimento; aula; autor; bizagi; book; bossa; carreiras; central; chaves; coordenador; descrição; desenvolvimento; direta; documentação; dono; elaboração; book</t>
+  </si>
+  <si>
+    <t>divisão; chefia; arte; cultura; responsabilidade; atividades; projeto; social; ação; processos; desportiva; captação; gestão; atividade; book; custos; elaboração; eventos; execução; financiamento; priorizados; processo; aguardando; andamento; avaliação; bizagi; campus; chaves; cientes; citados; controle; book</t>
+  </si>
+  <si>
+    <t>gestão; gestor; centro; bizagi; clínica; processos; clinica; coordenador; curso; diretor; nami; odontologia; cursos; docente; ensino; supervisor; planejamento; estágio; financeira; pessoas; prática; revisão; aproveitamento; atendimento; direção; manutenção; resultados; acompanhamento; agendamento; aprendizagem; clínicos; criação; diagnóstico; laboratório; projeto; projetos; protocolos; suprimentos; análise; assessor; atualização; aula; curricularizada; book</t>
+  </si>
+  <si>
+    <t>apoio; responsável; discente; docente; projetos; convênios; gestor; processos; acadêmica; aguardando; andamento; aprovado; autor; ações; bizagi; book; captação; convênio; descrição; dono; elaboração; gerenciamento; internacionalização; intercâmbio; legenda; mobilidade; priorizados; processo; produção; universidade; validado; validação; internacional; book</t>
+  </si>
+  <si>
+    <t>curso; centro; alunos; gestão; indicadores; docente; disciplina; fortaleza; fundação; universidade; ccg; geral; média; satisfação; avaliação; coordenador; processos; cumprimento; cursos; enade; índice; aluno; avaliativos; estágio; ponderada; trabalho; acompanhamento; aprendizagem; engajamento; frequência; graduação; matriz; mínimo; nota; núcleo; processo; professor; projetos; sobre; taxa; acadêmica; assessor; atendimento; ciclos; classificados; book</t>
+  </si>
+  <si>
+    <t>supervisor; projetos; ead; operações; processos; acompanhamento; educacionais; planejamento; controle; cursos; elaboração; ensino; gerenciamento; disciplinas; execução; jornada; materiais; polo; supervisão; aprendizagem; bases; book; cm; coordenação; dados; distância; docente; educação; epa; geral; gestão; graduação; monitoramento; objetos; priorizados; processo; produção; recursos; revisão; universidade; validação; acadêmicos; acervo; book</t>
+  </si>
+  <si>
+    <t>planejamento; processos; gestão; diretor; coordenador; institucional; projetos; avaliação; avaliações; book; dados; diplan; elaboração; gerente; internas; priorizados; proavi; processo; proteção; total; aguardando; aluno; andamento; análises; aprovado; bizagi; chaves; contas; custos; prestação; diagnósticos; dono; elaborado; experiência; externos; fortaleza; institucionais; integridade; inteligência; interna; book</t>
+  </si>
+  <si>
+    <t>bizagi; gestão; curso; coordenador; revisão; análise; ensino; processos; aproveitamento; estágio; planejamento; supervisor; centro; cursos; monitoria; projeto; acadêmicos; obrigatório; ppc; aprendizagem; atas; atualização; criação; docente; documentação; excepcional; execução; financeira; plano; projetos; secretaria; tratamento; tv; acompanhamento; alunos; aula; avaliativo; ciclo; complementares; cronograma; curriculares; disciplina; diversos; documentos; estratégico; estudo; estudos; extensão; book</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1724,49 +1734,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1775,7 +1785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1787,10 +1797,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1799,79 +1809,85 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2091,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2127,7 +2143,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="165.75" thickBot="1">
@@ -2135,19 +2151,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="20" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="26">
         <v>45441</v>
@@ -2155,45 +2171,45 @@
     </row>
     <row r="3" spans="1:26" ht="150.75" thickBot="1">
       <c r="A3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="E3" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="25" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="409.6" thickBot="1">
       <c r="A4" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>18</v>
+        <v>500</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>508</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="G4" s="26">
         <v>45455</v>
@@ -2201,22 +2217,22 @@
     </row>
     <row r="5" spans="1:26" ht="409.6" thickBot="1">
       <c r="A5" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>22</v>
+        <v>501</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>509</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="G5" s="27">
         <v>45513</v>
@@ -2224,22 +2240,22 @@
     </row>
     <row r="6" spans="1:26" ht="390.75" thickBot="1">
       <c r="A6" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>26</v>
+        <v>502</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>510</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="G6" s="26">
         <v>45463</v>
@@ -2247,22 +2263,22 @@
     </row>
     <row r="7" spans="1:26" ht="409.6" thickBot="1">
       <c r="A7" s="18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>30</v>
+        <v>503</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>511</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="G7" s="27">
         <v>45509</v>
@@ -2270,22 +2286,22 @@
     </row>
     <row r="8" spans="1:26" ht="409.6" thickBot="1">
       <c r="A8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>512</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="G8" s="26">
         <v>45474</v>
@@ -2293,22 +2309,22 @@
     </row>
     <row r="9" spans="1:26" ht="409.6" thickBot="1">
       <c r="A9" s="18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>38</v>
+        <v>497</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>513</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="G9" s="26">
         <v>45489</v>
@@ -2316,22 +2332,22 @@
     </row>
     <row r="10" spans="1:26" ht="409.6" thickBot="1">
       <c r="A10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>514</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="G10" s="26">
         <v>45503</v>
@@ -2339,22 +2355,22 @@
     </row>
     <row r="11" spans="1:26" ht="75.75" thickBot="1">
       <c r="A11" s="18" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G11" s="26">
         <v>44740</v>
@@ -2362,22 +2378,22 @@
     </row>
     <row r="12" spans="1:26" ht="60">
       <c r="A12" s="11" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G12" s="26">
         <v>44893</v>
@@ -2385,22 +2401,22 @@
     </row>
     <row r="13" spans="1:26" ht="75">
       <c r="A13" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G13" s="31">
         <v>45248</v>
@@ -2427,22 +2443,22 @@
     </row>
     <row r="14" spans="1:26" ht="75">
       <c r="A14" s="11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G14" s="26">
         <v>44890</v>
@@ -2450,22 +2466,22 @@
     </row>
     <row r="15" spans="1:26" ht="57">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G15" s="34">
         <v>44890</v>
@@ -2492,22 +2508,22 @@
     </row>
     <row r="16" spans="1:26" ht="45">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G16" s="34">
         <v>44890</v>
@@ -2534,22 +2550,22 @@
     </row>
     <row r="17" spans="1:26" s="38" customFormat="1" ht="60">
       <c r="A17" s="36" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G17" s="34">
         <v>44890</v>
@@ -2576,22 +2592,22 @@
     </row>
     <row r="18" spans="1:26" ht="57.75">
       <c r="A18" s="11" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G18" s="34">
         <v>44890</v>
@@ -2599,22 +2615,22 @@
     </row>
     <row r="19" spans="1:26" ht="60">
       <c r="A19" s="11" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G19" s="48">
         <v>44894</v>
@@ -2622,22 +2638,22 @@
     </row>
     <row r="20" spans="1:26" ht="72">
       <c r="A20" s="11" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G20" s="26">
         <v>45075</v>
@@ -2645,22 +2661,22 @@
     </row>
     <row r="21" spans="1:26" ht="57.75">
       <c r="A21" s="11" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G21" s="26">
         <v>44711</v>
@@ -2668,22 +2684,22 @@
     </row>
     <row r="22" spans="1:26" ht="60">
       <c r="A22" s="11" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G22" s="26">
         <v>44957</v>
@@ -2691,22 +2707,22 @@
     </row>
     <row r="23" spans="1:26" ht="72">
       <c r="A23" s="11" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G23" s="26">
         <v>44959</v>
@@ -2714,22 +2730,22 @@
     </row>
     <row r="24" spans="1:26" ht="71.25">
       <c r="A24" s="11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G24" s="26">
         <v>45100</v>
@@ -2737,22 +2753,22 @@
     </row>
     <row r="25" spans="1:26" ht="86.25">
       <c r="A25" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G25" s="26">
         <v>44796</v>
@@ -2760,22 +2776,22 @@
     </row>
     <row r="26" spans="1:26" ht="57.75">
       <c r="A26" s="11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G26" s="26">
         <v>45134</v>
@@ -2783,22 +2799,22 @@
     </row>
     <row r="27" spans="1:26" ht="57.75">
       <c r="A27" s="11" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G27" s="26">
         <v>45135</v>
@@ -2806,22 +2822,22 @@
     </row>
     <row r="28" spans="1:26" ht="57.75">
       <c r="A28" s="11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G28" s="26">
         <v>45500</v>
@@ -2829,22 +2845,22 @@
     </row>
     <row r="29" spans="1:26" ht="57.75">
       <c r="A29" s="11" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G29" s="26">
         <v>45500</v>
@@ -2852,22 +2868,22 @@
     </row>
     <row r="30" spans="1:26" ht="72">
       <c r="A30" s="11" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G30" s="26">
         <v>45500</v>
@@ -2875,22 +2891,22 @@
     </row>
     <row r="31" spans="1:26" ht="72">
       <c r="A31" s="11" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G31" s="26">
         <v>45061</v>
@@ -2898,22 +2914,22 @@
     </row>
     <row r="32" spans="1:26" ht="72">
       <c r="A32" s="11" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G32" s="26">
         <v>45061</v>
@@ -2921,22 +2937,22 @@
     </row>
     <row r="33" spans="1:7" ht="45">
       <c r="A33" s="11" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G33" s="26">
         <v>45393</v>
@@ -2944,22 +2960,22 @@
     </row>
     <row r="34" spans="1:7" ht="72">
       <c r="A34" s="11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G34" s="26">
         <v>45126</v>
@@ -2967,22 +2983,22 @@
     </row>
     <row r="35" spans="1:7" ht="72">
       <c r="A35" s="11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G35" s="26">
         <v>45393</v>
@@ -2990,22 +3006,22 @@
     </row>
     <row r="36" spans="1:7" ht="57.75">
       <c r="A36" s="11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G36" s="26">
         <v>45393</v>
@@ -3013,22 +3029,22 @@
     </row>
     <row r="37" spans="1:7" ht="45">
       <c r="A37" s="11" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G37" s="26">
         <v>45393</v>
@@ -3036,22 +3052,22 @@
     </row>
     <row r="38" spans="1:7" ht="57.75">
       <c r="A38" s="11" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G38" s="26">
         <v>45128</v>
@@ -3059,22 +3075,22 @@
     </row>
     <row r="39" spans="1:7" ht="57.75">
       <c r="A39" s="11" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G39" s="26">
         <v>45201</v>
@@ -3082,22 +3098,22 @@
     </row>
     <row r="40" spans="1:7" ht="57.75">
       <c r="A40" s="11" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G40" s="26">
         <v>45201</v>
@@ -3105,22 +3121,22 @@
     </row>
     <row r="41" spans="1:7" ht="57.75">
       <c r="A41" s="11" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G41" s="26">
         <v>45139</v>
@@ -3128,22 +3144,22 @@
     </row>
     <row r="42" spans="1:7" ht="57.75">
       <c r="A42" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G42" s="49">
         <v>45175</v>
@@ -3151,22 +3167,22 @@
     </row>
     <row r="43" spans="1:7" ht="72">
       <c r="A43" s="11" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G43" s="26">
         <v>44797</v>
@@ -3174,22 +3190,22 @@
     </row>
     <row r="44" spans="1:7" ht="57.75">
       <c r="A44" s="11" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G44" s="26">
         <v>45142</v>
@@ -3197,22 +3213,22 @@
     </row>
     <row r="45" spans="1:7" ht="72">
       <c r="A45" s="11" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G45" s="26">
         <v>45170</v>
@@ -3220,22 +3236,22 @@
     </row>
     <row r="46" spans="1:7" ht="57.75">
       <c r="A46" s="11" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G46" s="26">
         <v>45170</v>
@@ -3243,22 +3259,22 @@
     </row>
     <row r="47" spans="1:7" ht="57.75">
       <c r="A47" s="11" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G47" s="26">
         <v>44361</v>
@@ -3266,22 +3282,22 @@
     </row>
     <row r="48" spans="1:7" ht="72">
       <c r="A48" s="11" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G48" s="50">
         <v>45180</v>
@@ -3289,22 +3305,22 @@
     </row>
     <row r="49" spans="1:7" ht="57.75">
       <c r="A49" s="11" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G49" s="26">
         <v>45177</v>
@@ -3312,22 +3328,22 @@
     </row>
     <row r="50" spans="1:7" ht="57.75">
       <c r="A50" s="11" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G50" s="48">
         <v>45160</v>
@@ -3335,22 +3351,22 @@
     </row>
     <row r="51" spans="1:7" ht="57.75">
       <c r="A51" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G51" s="26">
         <v>45169</v>
@@ -3358,22 +3374,22 @@
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="11" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G52" s="26">
         <v>45194</v>
@@ -3381,22 +3397,22 @@
     </row>
     <row r="53" spans="1:7" ht="72">
       <c r="A53" s="25" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G53" s="26">
         <v>45243</v>
@@ -3404,22 +3420,22 @@
     </row>
     <row r="54" spans="1:7" ht="72">
       <c r="A54" s="11" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G54" s="26">
         <v>45243</v>
@@ -3427,22 +3443,22 @@
     </row>
     <row r="55" spans="1:7" ht="72">
       <c r="A55" s="11" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G55" s="26">
         <v>44095</v>
@@ -3450,22 +3466,22 @@
     </row>
     <row r="56" spans="1:7" ht="57.75">
       <c r="A56" s="11" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G56" s="26">
         <v>45244</v>
@@ -3473,22 +3489,22 @@
     </row>
     <row r="57" spans="1:7" ht="72">
       <c r="A57" s="11" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G57" s="26">
         <v>45247</v>
@@ -3496,22 +3512,22 @@
     </row>
     <row r="58" spans="1:7" ht="72">
       <c r="A58" s="25" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G58" s="26">
         <v>45223</v>
@@ -3519,22 +3535,22 @@
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="11" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G59" s="26">
         <v>45423</v>
@@ -3542,22 +3558,22 @@
     </row>
     <row r="60" spans="1:7" ht="57.75">
       <c r="A60" s="11" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G60" s="26">
         <v>45423</v>
@@ -3565,22 +3581,22 @@
     </row>
     <row r="61" spans="1:7" ht="45">
       <c r="A61" s="11" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G61" s="26">
         <v>45499</v>
@@ -3588,22 +3604,22 @@
     </row>
     <row r="62" spans="1:7" ht="72">
       <c r="A62" s="11" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G62" s="26">
         <v>45478</v>
@@ -3611,22 +3627,22 @@
     </row>
     <row r="63" spans="1:7" ht="57.75">
       <c r="A63" s="11" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G63" s="26">
         <v>45498</v>
@@ -3634,22 +3650,22 @@
     </row>
     <row r="64" spans="1:7" ht="45">
       <c r="A64" s="11" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G64" s="26">
         <v>45509</v>
@@ -3657,22 +3673,22 @@
     </row>
     <row r="65" spans="1:26" ht="57.75">
       <c r="A65" s="11" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G65" s="26">
         <v>44890</v>
@@ -3680,22 +3696,22 @@
     </row>
     <row r="66" spans="1:26" ht="72">
       <c r="A66" s="11" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G66" s="26">
         <v>45168</v>
@@ -3703,22 +3719,22 @@
     </row>
     <row r="67" spans="1:26" ht="72">
       <c r="A67" s="11" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G67" s="26">
         <v>45187</v>
@@ -3726,22 +3742,22 @@
     </row>
     <row r="68" spans="1:26" ht="45">
       <c r="A68" s="11" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G68" s="26">
         <v>44901</v>
@@ -3749,22 +3765,22 @@
     </row>
     <row r="69" spans="1:26" ht="57.75">
       <c r="A69" s="11" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G69" s="26">
         <v>44890</v>
@@ -3772,22 +3788,22 @@
     </row>
     <row r="70" spans="1:26" ht="45">
       <c r="A70" s="44" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G70" s="26">
         <v>44890</v>
@@ -3814,22 +3830,22 @@
     </row>
     <row r="71" spans="1:26" ht="45">
       <c r="A71" s="44" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G71" s="26">
         <v>44890</v>
@@ -3856,22 +3872,22 @@
     </row>
     <row r="72" spans="1:26" ht="45">
       <c r="A72" s="44" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G72" s="26">
         <v>44890</v>
@@ -3898,22 +3914,22 @@
     </row>
     <row r="73" spans="1:26" ht="45">
       <c r="A73" s="44" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G73" s="26">
         <v>44890</v>
@@ -3940,22 +3956,22 @@
     </row>
     <row r="74" spans="1:26" ht="45">
       <c r="A74" s="44" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G74" s="51">
         <v>44902</v>
@@ -3982,22 +3998,22 @@
     </row>
     <row r="75" spans="1:26" ht="45">
       <c r="A75" s="44" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G75" s="51">
         <v>44958</v>
@@ -4024,22 +4040,22 @@
     </row>
     <row r="76" spans="1:26" ht="57.75">
       <c r="A76" s="11" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G76" s="26">
         <v>44890</v>
@@ -4047,22 +4063,22 @@
     </row>
     <row r="77" spans="1:26" ht="57.75">
       <c r="A77" s="11" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G77" s="26">
         <v>44890</v>
@@ -4070,22 +4086,22 @@
     </row>
     <row r="78" spans="1:26" ht="57.75">
       <c r="A78" s="25" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G78" s="26">
         <v>44890</v>
@@ -4093,22 +4109,22 @@
     </row>
     <row r="79" spans="1:26" ht="72">
       <c r="A79" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G79" s="26">
         <v>44890</v>
@@ -4116,22 +4132,22 @@
     </row>
     <row r="80" spans="1:26" ht="57.75">
       <c r="A80" s="11" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G80" s="26">
         <v>44890</v>
@@ -4139,22 +4155,22 @@
     </row>
     <row r="81" spans="1:26" ht="72">
       <c r="A81" s="11" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G81" s="26">
         <v>45096</v>
@@ -4162,22 +4178,22 @@
     </row>
     <row r="82" spans="1:26" ht="72">
       <c r="A82" s="11" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G82" s="26">
         <v>45159</v>
@@ -4185,22 +4201,22 @@
     </row>
     <row r="83" spans="1:26" ht="57.75">
       <c r="A83" s="11" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E83" s="41" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G83" s="26">
         <v>45159</v>
@@ -4208,22 +4224,22 @@
     </row>
     <row r="84" spans="1:26" ht="45">
       <c r="A84" s="44" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G84" s="51">
         <v>44890</v>
@@ -4250,22 +4266,22 @@
     </row>
     <row r="85" spans="1:26" ht="57.75">
       <c r="A85" s="11" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G85" s="26">
         <v>45163</v>
@@ -4273,22 +4289,22 @@
     </row>
     <row r="86" spans="1:26" ht="72">
       <c r="A86" s="11" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G86" s="26">
         <v>45166</v>
@@ -4296,22 +4312,22 @@
     </row>
     <row r="87" spans="1:26" ht="72">
       <c r="A87" s="11" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G87" s="26">
         <v>45163</v>
@@ -4319,22 +4335,22 @@
     </row>
     <row r="88" spans="1:26" ht="45">
       <c r="A88" s="44" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D88" s="44" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G88" s="51">
         <v>44888</v>
@@ -4361,22 +4377,22 @@
     </row>
     <row r="89" spans="1:26" ht="72">
       <c r="A89" s="11" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G89" s="48">
         <v>44946</v>
@@ -4384,22 +4400,22 @@
     </row>
     <row r="90" spans="1:26" ht="72">
       <c r="A90" s="11" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G90" s="26">
         <v>45494</v>
@@ -4407,22 +4423,22 @@
     </row>
     <row r="91" spans="1:26" ht="72">
       <c r="A91" s="11" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G91" s="48">
         <v>45104</v>
@@ -4430,22 +4446,22 @@
     </row>
     <row r="92" spans="1:26" ht="45">
       <c r="A92" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G92" s="26">
         <v>45170</v>
@@ -4453,22 +4469,22 @@
     </row>
     <row r="93" spans="1:26" ht="45">
       <c r="A93" s="11" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G93" s="26">
         <v>45170</v>
@@ -4476,22 +4492,22 @@
     </row>
     <row r="94" spans="1:26" ht="45">
       <c r="A94" s="44" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G94" s="51">
         <v>45146</v>
@@ -4518,22 +4534,22 @@
     </row>
     <row r="95" spans="1:26" ht="45">
       <c r="A95" s="44" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G95" s="51">
         <v>45146</v>
@@ -4560,22 +4576,22 @@
     </row>
     <row r="96" spans="1:26" ht="45">
       <c r="A96" s="11" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G96" s="26">
         <v>45225</v>
@@ -4583,22 +4599,22 @@
     </row>
     <row r="97" spans="1:7" ht="86.25">
       <c r="A97" s="11" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G97" s="26">
         <v>45225</v>
@@ -4606,22 +4622,22 @@
     </row>
     <row r="98" spans="1:7" ht="72">
       <c r="A98" s="11" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G98" s="26">
         <v>45257</v>
@@ -4629,22 +4645,22 @@
     </row>
     <row r="99" spans="1:7" ht="57.75">
       <c r="A99" s="11" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G99" s="26">
         <v>45257</v>
@@ -4652,22 +4668,22 @@
     </row>
     <row r="100" spans="1:7" ht="57.75">
       <c r="A100" s="11" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G100" s="26">
         <v>45257</v>
@@ -4675,22 +4691,22 @@
     </row>
     <row r="101" spans="1:7" ht="72">
       <c r="A101" s="11" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G101" s="26">
         <v>45271</v>
@@ -4698,22 +4714,22 @@
     </row>
     <row r="102" spans="1:7" ht="72">
       <c r="A102" s="11" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G102" s="26">
         <v>45271</v>
@@ -4721,22 +4737,22 @@
     </row>
     <row r="103" spans="1:7" ht="72">
       <c r="A103" s="11" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G103" s="26">
         <v>45190</v>
@@ -4744,22 +4760,22 @@
     </row>
     <row r="104" spans="1:7" ht="72">
       <c r="A104" s="11" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G104" s="26">
         <v>44876</v>
@@ -4767,22 +4783,22 @@
     </row>
     <row r="105" spans="1:7" ht="72">
       <c r="A105" s="11" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G105" s="26">
         <v>44876</v>
@@ -4790,22 +4806,22 @@
     </row>
     <row r="106" spans="1:7" ht="45">
       <c r="A106" s="11" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G106" s="26">
         <v>43554</v>
@@ -4813,22 +4829,22 @@
     </row>
     <row r="107" spans="1:7" ht="57.75">
       <c r="A107" s="11" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G107" s="26">
         <v>44958</v>
@@ -4836,22 +4852,22 @@
     </row>
     <row r="108" spans="1:7" ht="57.75">
       <c r="A108" s="11" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G108" s="26">
         <v>45131</v>
@@ -4859,22 +4875,22 @@
     </row>
     <row r="109" spans="1:7" ht="57.75">
       <c r="A109" s="11" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G109" s="26">
         <v>45145</v>
@@ -4882,22 +4898,22 @@
     </row>
     <row r="110" spans="1:7" ht="57.75">
       <c r="A110" s="11" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G110" s="26">
         <v>45145</v>
@@ -4905,22 +4921,22 @@
     </row>
     <row r="111" spans="1:7" ht="72">
       <c r="A111" s="11" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G111" s="26">
         <v>45145</v>
@@ -4928,22 +4944,22 @@
     </row>
     <row r="112" spans="1:7" ht="45">
       <c r="A112" s="11" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G112" s="26">
         <v>44844</v>
@@ -4951,22 +4967,22 @@
     </row>
     <row r="113" spans="1:7" ht="72">
       <c r="A113" s="11" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G113" s="26">
         <v>45351</v>
@@ -4974,22 +4990,22 @@
     </row>
     <row r="114" spans="1:7" ht="72">
       <c r="A114" s="11" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G114" s="26">
         <v>44860</v>
@@ -4997,22 +5013,22 @@
     </row>
     <row r="115" spans="1:7" ht="72">
       <c r="A115" s="11" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E115" s="32" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G115" s="26">
         <v>45464</v>

--- a/teste 1.xlsx
+++ b/teste 1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="567">
   <si>
     <t>Código do documento</t>
   </si>
@@ -290,45 +290,30 @@
     <t>[VRP] - Atração de empresa para o parque</t>
   </si>
   <si>
-    <t>atração; parque; contrato; atividades; empresa; podem; assinar; adicionar; aguarda; anexo; aprendendo; apresentação; aprovado; atidades; automatizadas; autor; base; benefícios; bizagi; chancela; cliente; condições; contratuais; dado; desconexão; descrição; dono; efetivação; eliminadas; empresas; ensinando; especificações; excesso; finalizado; frustações; fundação; garantia; ia; incluir; informar; interesse; jurídico; melhoria; média; negociar; ofertados</t>
-  </si>
-  <si>
     <t>BPMN0031:01</t>
   </si>
   <si>
     <t>[VRP] - Incentivo fiscal</t>
   </si>
   <si>
-    <t>fiscal; incentivo; documentação; buscará; cliente; contratado; corrigida; interesse; aprendendo; aprovado; aprovação; atividade; atividades; autor; bezera; bizagi; chancela; checklist; conta; contato; descrição; desenvolvimento; diretamente; ecanômica; empresa; ensinando; excesso; feito; frustações; fundação; garantia; gestão; incentiva; meção; média; própria; qualidade; queiroz; recebe</t>
-  </si>
-  <si>
     <t>BPMN0032:01</t>
   </si>
   <si>
     <t>[VRP] - Instalacao de empresas no parque</t>
   </si>
   <si>
-    <t>empresa; funcionários; obra; dmo; início; planilha; projeto; receber; aprovado; contrato; liberação; obras; operação; orçamento; parque; parte; regras; reunião; solicitação; tec; tempo; validar; vrp; aero; ajustes; analisar; análise; aprendendo; assinado; atividades; autorizar; bizagi; cada;  chancela; cl; coesa;  concluir; conclusão; construtora; correção</t>
-  </si>
-  <si>
     <t>BPMN0033:01</t>
   </si>
   <si>
     <t>Solicitação de manutenção</t>
   </si>
   <si>
-    <t>atividades; equipamento; podem; solicitação; alta; aprendendo; atos; autor;bizagi; cliente; descrição; eliminadas; ensinando; excesso; frustações; fundação; garantia; manutenção; oportunidade; programação; qualidade; queiroz; setor; unifor; validar</t>
-  </si>
-  <si>
     <t>BPMN0035:00</t>
   </si>
   <si>
     <t>Solicitação de Serviço por Demanda</t>
   </si>
   <si>
-    <t>solicitação; serviço; demanda; atividades; aprovador; automatizadas; autorizar; bizagi; chancela; cliente; compras; demanda; desconexão; descrição; dono; eliminadas; equipamento; excesso; frustações; garantia; gestor; meto; oportunidade; rindo; setor; responsável; sincronizadas; solicitação; universidade; validar; versão</t>
-  </si>
-  <si>
     <t>PATRIMÔNIO, COMPRAS</t>
   </si>
   <si>
@@ -338,9 +323,6 @@
     <t>EAD - Matrícula do 1º Intake</t>
   </si>
   <si>
-    <t>candidato; ead; inscrição; aluno; atividades; login; desconto; disciplinas; documentos; ensino; matriculado; médio; cadastro; enem; entregar; ficha; financeiro; redação; semestre; status; vestibular; abandonada; aceitos; acordo; anteriores; aprendendo; atores; automatizadas; autor; beneficiado; bizagi; boleto; candidato; captação; certificado;cliente; Instake; matricula</t>
-  </si>
-  <si>
     <t>BPMN0038:01</t>
   </si>
   <si>
@@ -356,9 +338,6 @@
     <t>Cartão Unifor na Biblioteca</t>
   </si>
   <si>
-    <t>pagamento; aluno; cartão; poderá; semestre; bolsa; curso; período; unifor; dia; pendência; sistema; catraca; empréstimo; foto; letivo; biblioteca; bloqueado; cursando; inteiro; parcelas; utilizar; acadêmico; financeira; graduação; livros; mensalidade; negócio; pagas; pegar; pós; realizar; acadêmia; acordo; ativo; categoria; compras; doutorado; débitos; final; gerar</t>
-  </si>
-  <si>
     <t>BIBLIOTECA, VRADM</t>
   </si>
   <si>
@@ -386,9 +365,6 @@
     <t>Solicitação de Projeto Obra</t>
   </si>
   <si>
-    <t>obra; solicitação; projeto; cancelada; atividades; acima; analisar; descrição;  fim; início; obras; realizada; setor; vre; administrativo; anexos; aprovado; atores; autor; bizagi; castelo; centro; chancela; comitê; complexidade; coordenadores; coordenação; coreto; curso; data; desconexão; dono; elaboração; eliminadas; enviar; estimada; estratégico; finalizada</t>
-  </si>
-  <si>
     <t>DPO</t>
   </si>
   <si>
@@ -398,9 +374,6 @@
     <t>Serviços Gráficos</t>
   </si>
   <si>
-    <t>solicitação; orçamento; aguardar; arquivo; atividades; informações; material; serviço; valor; valores; aprovado; conforme; contas; recebida; fiscal; nota; orçam; serviços; solicitar; acordo; ajustado; ajustes; compra; empresa; encaminhar; formulários; gráfico; impressão; liberação; materia; melhoria; oportunidade; pagamento; patrimônio; pendentes; planejamento; prestação; promocionais; página; realizado</t>
-  </si>
-  <si>
     <t>GRÁFICA</t>
   </si>
   <si>
@@ -410,18 +383,12 @@
     <t>Impressão Interna</t>
   </si>
   <si>
-    <t>atividades; impressão; materia; material; retirada; gráfico; necessita; podem; solicitante; acadêmico; administrativo; aprendendo; aprovado; automatizadas; autor; autorização; bizagi; demora; desconexão; descrição; eliminadas; ensinando; excesso; frustações; fundação; garantia; gestão; gráfica; interna; melhoria; oportunidade; prova</t>
-  </si>
-  <si>
     <t>BPMN0054:00</t>
   </si>
   <si>
     <t>Solicitação de Pagamento - SP</t>
   </si>
   <si>
-    <t>aprovação; pagamento; analisar; aprovar; atividades; contas; informação; pagar; programação; supervisor; administrativa; anterior; aprendendo; aprovada; aprovado; aprovadores; bizagi; chancela; cliente; conforme; criadas;  definido; demora; desconexão; descrição; deverá; diferenciar</t>
-  </si>
-  <si>
     <t>TESOURARIA, CONTAS A PAGAR</t>
   </si>
   <si>
@@ -431,9 +398,6 @@
     <t>Frete</t>
   </si>
   <si>
-    <t>atividades; fretes; patrimônio; relação; inconsistências; podem; administrativa; analisar; aprendendo; aprovador; atores; automatizadas; autor; chancela; cliente; código; desconexão; descrição; dono; eliminadas; encaminhado; ensinando; financeira; frustações; fundação; garantia; gerência; gestão; interestadual; melhoria; média; mês; oportunidade; qualidade; queiroz; recebida; recebimento; serviço; sincronizadas; transporte</t>
-  </si>
-  <si>
     <t>DIPLAN, PATRIMÔNIO</t>
   </si>
   <si>
@@ -452,9 +416,6 @@
     <t>Contabilidade</t>
   </si>
   <si>
-    <t>competência; informações; mês; recebimento; mensal; recepcionar; útil; contabilidade; contas; gerar; integração; lote; almoxarifado; aprovado; atividades; ativo; autor; bizagi; cliente; conciliação; contábeis; criar; custos; demonstrações; descrição; dono; eliminadas; emissão; fechamento; fiscais; folha; garantia</t>
-  </si>
-  <si>
     <t>DIPLAN, CONTABILIDADE</t>
   </si>
   <si>
@@ -464,9 +425,6 @@
     <t>Gestão de Convênios</t>
   </si>
   <si>
-    <t>vigência; convênio; atividades; cancelamento; cursos; data; gados; renovação; alunos; início; suspensas; universidade; acompanhamento;  aprovado; após; assinado;  automatica; bizagi; cadastro; campos; chancela; cliente; colaboradores; continente; convênio; convênios; eliminadas; envolvidas; estrangeiros; excesso; frustações; garantia</t>
-  </si>
-  <si>
     <t>REITORIA</t>
   </si>
   <si>
@@ -488,9 +446,6 @@
     <t>Admissão de Empregado</t>
   </si>
   <si>
-    <t>cpf; ano; crachá; custo; aprendiz; comprovante; data; documentação; filhos; importação; informações; acadêmico; admissão; cargo; centro; código; docente; encaminhamento; foto; novos; obrigatório; obrigatórios; xerox; atividades; atual; cadastro; candidato; consta; criação; curso; descrição; deverão; documentos; empregados; formação; funcionário; gerada; integrar; integração; pendência</t>
-  </si>
-  <si>
     <t>DRH, SETOR PESSOAL</t>
   </si>
   <si>
@@ -500,9 +455,6 @@
     <t>Carga Horária Docente</t>
   </si>
   <si>
-    <t>carga; horária; informações; atividades; tela; acadêmico; docente; docentes; setor; validação; apresentar; cargo; contei; forma; horas; média; período; pessoal; podem; possibilidade; possuem; professores; tempo; validada; académico; administrativas; administrativo; ajusta; ajustes; alteração; alterações; anterior; aprendendo; aprovado; arquivo; ator; atualização; automatizadas; autor; autorização; base; bizagi; categoria; centros; chancela</t>
-  </si>
-  <si>
     <t>DRH, SETOR PESSOAL, GENTE &amp; GESTÃO</t>
   </si>
   <si>
@@ -512,18 +464,12 @@
     <t>Descontos Folha de Pagamento</t>
   </si>
   <si>
-    <t>folha; pagamento; movimento; configurar; desconto; descontos; funcionário; requerimento; setor; verba; atividades; competência; nome; parcela; período; titulo; valor; código; data; envio; funcionario;movimentação; nova; pessoal; qualidade; tabela; ano; apenas; aprendendo; aprovado; arquivos; autor; benefícios; bizagi; chancela; cliente; configuração; confirmar; consulta; contábil; contáblidos;</t>
-  </si>
-  <si>
     <t>BPMN0064:00</t>
   </si>
   <si>
     <t xml:space="preserve">Descontos em Folha - Loja do Campus </t>
   </si>
   <si>
-    <t>campus; compra; formas; formulário; loja; pessoal; podem; aee; analisar; apre; aprendendo; aprovado; assinar; automatizadas; autor; bizagi; campus; chancela; cliente; competência; controle; definida; demora; desconexão; desconto; descrição; eliminadas; encaminhadas; ensinando;  estoque; fundação; físico; garantia; gestão; implantação</t>
-  </si>
-  <si>
     <t>DRH, GENTE &amp; GESTÃO, SETOR PESSOAL</t>
   </si>
   <si>
@@ -542,9 +488,6 @@
     <t>Pagamento de professores OVO</t>
   </si>
   <si>
-    <t>pagamento; solicitação; emissão; após; valor; aprovação; fiscal; mês; nota; pagamentos; prazo; solicitações; acordo; adicionados; administração; aprovadores; cada; compra; dia; docentes; emitida; fuso; gerar; necessidade; ovo;  realizado; recebimento; reitoria; analisar;  anteriormente; aprovada; aprovadortay; aprovados; arquivo; assessoria; aulas; autor; autorizar; ava; bizagi; calendário;</t>
-  </si>
-  <si>
     <t>EAD, PÓS GRADUAÇÃO LATO SENSU</t>
   </si>
   <si>
@@ -554,18 +497,12 @@
     <t>Avaliação de Egresso - Graduação</t>
   </si>
   <si>
-    <t>aluno; contato; dado; formulário; funcionário; ligação; papsa; aprendendo; atualizar; autor; avaliação; base; bizagi; chancela; comunicado; comunicados; demora; diplan; eficazes; ensinando; entra; enviado; excesso; expediente; feitas; filas; fim</t>
-  </si>
-  <si>
     <t>BPMN0076:01</t>
   </si>
   <si>
     <t>Avaliação de Egresso -  Pós-Graduação</t>
   </si>
   <si>
-    <t>aluno; avaliação; contato; papsa; atividades; comunicados;drive; eficazes; formulário; funcionário; pasta; pesquisa; seguinte; versão; ama; analista; aprendendo; atendeu; através; atualizar; autor; avatiação; bizagi; captação; cliente; comunicado; demora; desconexão; descrição; dias; diplan; disponibilizadas; disponibiltadas; eliminadas; ensinando; enviado</t>
-  </si>
-  <si>
     <t>BPMN0079:01</t>
   </si>
   <si>
@@ -578,9 +515,6 @@
     <t xml:space="preserve"> Jornada do aluno Pós EaD</t>
   </si>
   <si>
-    <t>aluno; valor; pagamento; disciplina; recebido; desconto; alunos; ava; curso; ovo; percentual; apresentar; documentação; matrícula; multa; nota; realizado; tentativas; crédito; desistência; devolução; financeiro; informações; juros; oferta; quantidade; repasse; acompanhamento; apenas; assinaturas; atividade; avaliação; carga; cartão; caso; certificado; completa; jornada; EaD</t>
-  </si>
-  <si>
     <t>PÓS LATO SENSU EAD, EAD, VRE, SECRETARIA ACADÊMICA, BENEFÍCIOS E FINANCIAMENTOS</t>
   </si>
   <si>
@@ -596,9 +530,6 @@
     <t>Inteligência de Mercado (BI)</t>
   </si>
   <si>
-    <t>painel;  tipo; mercado; selecionar;  treinamento; unir; análse; aprovado; atendida; atualização; beco; bizagi; coca; comparativa; concorrentes; concorrência; consultar; cursos; dado; origem; desconto; desenvolvimento; ensino; ermento; escolher; existente</t>
-  </si>
-  <si>
     <t>ITCAD0001:00</t>
   </si>
   <si>
@@ -1419,9 +1350,6 @@
   </si>
   <si>
     <t>https://unifor.qualyteam.com.br/Documento/doc?codigoDocumento=PO%4015%400</t>
-  </si>
-  <si>
-    <t>projeto; atividades; analista; informações; pasta; ajuste; concedente; criar;  disco; gcp; receber; submissão; ajustes; assinado; assinatura; assinaturas; assistente; atualizar; GCP; submissão, projeto; Diplan</t>
   </si>
   <si>
     <t>pagamento; solicitação; solicitante; projeto; formulário; necessidade; projetos; valor; atividades; comprovante; identificar; material; nota; realizar; adicionar; analista; contas; custo; equipamento; escolher; fiscal; fornecedor; passagem; recebimento; serviço;bancária; cadastro; compra; conta; corta; demanda; envio; projeto; Diplan</t>
@@ -1668,6 +1596,179 @@
   </si>
   <si>
     <t>atividades; aprendendo; bizagi; bolsista; chancela; cliente; descor; edson; eliminadas; ensinando; excesso; frustações; funcap; fundação; garantia; macroprocesso; osso; podem; qualidade; queiroz; responsável; setor; sincronizadas; VRP; Bolsas; Funcap</t>
+  </si>
+  <si>
+    <t>O diagrama ilustra o macroprocesso de gestão de bolsas da FUNCAP na Universidade de Fortaleza (Unifor). O fluxo inicia com o contato ao bolsista via telefone, WhatsApp ou e-mail, seguido pela comunicação do resultado da bolsa. Dependendo do resultado, a bolsa pode ser implementada, renovada ou cancelada. Caso a bolsa seja aprovada ou renovada, há uma etapa de coleta de documentos, que, após verificação de conformidade, são enviados para a FUNCAP. O processo garante a gestão eficiente de bolsas, com comunicação clara e verificação de conformidade dos documentos necessários.</t>
+  </si>
+  <si>
+    <t>atração; parque; contrato; atividades; empresa; podem; assinar; adicionar; aguarda; anexo; aprendendo; apresentação; aprovado; atidades; automatizadas; autor; base; benefícios; bizagi; chancela; cliente; condições; contratuais; dado; desconexão; descrição; dono; efetivação; eliminadas; empresas; ensinando; especificações; excesso; finalizado; frustações; fundação; garantia; ia; incluir; informar; interesse; jurídico; melhoria; média; negociar; ofertados; VRP;atração; empresa; parque</t>
+  </si>
+  <si>
+    <t>fiscal; incentivo; documentação; buscará; cliente; contratado; corrigida; interesse; aprendendo; aprovado; aprovação; atividade; atividades; autor; bezera; bizagi; chancela; checklist; conta; contato; descrição; desenvolvimento; diretamente; ecanômica; empresa; ensinando; excesso; feito; frustações; fundação; garantia; gestão; incentiva; meção; média; própria; qualidade; queiroz; recebe; VRP; incentivo; fiscal</t>
+  </si>
+  <si>
+    <t>O diagrama descreve o processo de incentivo fiscal na Universidade de Fortaleza (Unifor), que abrange desde a solicitação de análise de viabilidade até a aprovação e documentação do incentivo. O fluxo inicia com a requisição do benefício fiscal, seguida por análise preliminar, verificação de documentos e conferência de conformidade. Se aprovado, o processo segue para a emissão e registro do incentivo; caso contrário, há etapas de ajustes ou correções. A documentação final é armazenada, garantindo conformidade com as normas regulatórias e facilitando futuras auditorias e controles internos.</t>
+  </si>
+  <si>
+    <t>empresa; funcionários; obra; dmo; início; planilha; projeto; receber; aprovado; contrato; liberação; obras; operação; orçamento; parque; parte; regras; reunião; solicitação; tec; tempo; validar; vrp; aero; ajustes; analisar; análise; aprendendo; assinado; atividades; autorizar; bizagi; cada;  chancela; cl; coesa;  concluir; conclusão; construtora; correção; instalação; empresas; parque</t>
+  </si>
+  <si>
+    <t>O diagrama detalha o processo de instalação de empresas no Parque Tecnológico da Universidade de Fortaleza (Unifor). O fluxo inicia com a submissão de uma proposta de instalação, seguida por uma análise de viabilidade pelo comitê gestor. Após aprovação preliminar, ocorrem negociações de termos e condições, assinatura de contratos, e procedimentos para a efetiva instalação da empresa no parque. Se aprovado, a empresa é formalmente instalada; se não, o processo pode ser interrompido ou ajustado conforme necessário. O diagrama garante um procedimento transparente e bem estruturado para o ingresso de novas empresas no Parque Tecnológico.</t>
+  </si>
+  <si>
+    <t>atividades; equipamento; podem; solicitação; alta; aprendendo; atos; autor;bizagi; cliente; descrição; eliminadas; ensinando; excesso; frustações; fundação; garantia; manutenção; oportunidade; programação; qualidade; queiroz; setor; unifor; validar; solicitação; manutenção; vrp</t>
+  </si>
+  <si>
+    <t>O diagrama mostra o processo de solicitação de manutenção na Universidade de Fortaleza (Unifor). O fluxo começa com uma empresa solicitando manutenção via e-mail ou WhatsApp. A solicitação é verificada para confirmar se o equipamento pertence à Unifor. Se confirmado, a solicitação é aberta e acompanhada por meio de um chamado. O serviço é então programado e realizado, seguido pela validação. Se o serviço está conforme, a manutenção é finalizada; caso contrário, ajustes são solicitados e o processo é repetido até a conformidade ser atingida. O diagrama assegura um processo eficiente e controlado para manutenção de equipamentos.</t>
+  </si>
+  <si>
+    <t>O diagrama descreve o processo de solicitação de serviços por demanda na Universidade de Fortaleza (Unifor). O fluxo começa com a solicitação de serviço via sistemas como Pipefy ou UOL, incluindo a indicação do problema e preenchimento de informações obrigatórias. Em seguida, a demanda é verificada e o fornecedor é contatado para orçamento. Após a análise do orçamento, o serviço pode ser autorizado ou rejeitado. Se autorizado, o serviço é realizado, a nota fiscal (NF) é emitida e recebida, e o processo retorna ao subprocesso de compras para a criação de requisição de compra (RC). O processo garante eficiência na gestão de serviços sob demanda.</t>
+  </si>
+  <si>
+    <t>solicitação; serviço; demanda; atividades; aprovador; automatizadas; autorizar; bizagi; chancela; cliente; compras; demanda; desconexão; descrição; dono; eliminadas; equipamento; excesso; frustações; garantia; gestor; meto; oportunidade; rindo; setor; responsável; sincronizadas; solicitação; universidade; validar; versão; patrmônio; compras; Pipefy; Uol; Rc; Nfe</t>
+  </si>
+  <si>
+    <t>candidato; ead; inscrição; aluno; atividades; login; desconto; disciplinas; documentos; ensino; matriculado; médio; cadastro; enem; entregar; ficha; financeiro; redação; semestre; status; vestibular; abandonada; aceitos; acordo; anteriores; aprendendo; atores; automatizadas; autor; beneficiado; bizagi; boleto; candidato; captação; certificado;cliente; Instake; matricula; EAD</t>
+  </si>
+  <si>
+    <t>candidato; ead; inscrição; aluno; atividades; login; desconto; disciplinas; documentos; ensino; matriculado; médio; cadastro; enem; entregar; ficha; financeiro; redação; semestre; status; vestibular; abandonada; aceitos; acordo; anteriores; aprendendo; atores; automatizadas; autor; beneficiado; bizagi; boleto; candidato; captação; certificado;cliente; Instake; matricula; VRE; EAD; Matricula; Instake</t>
+  </si>
+  <si>
+    <t>pagamento; aluno; cartão; poderá; semestre; bolsa; curso; período; unifor; dia; pendência; sistema; catraca; empréstimo; foto; letivo; biblioteca; bloqueado; cursando; inteiro; parcelas; utilizar; acadêmico; financeira; graduação; livros; mensalidade; negócio; pagas; pegar; pós; realizar; acadêmia; acordo; ativo; categoria; compras; doutorado; débitos; final; gerar; biblioteca</t>
+  </si>
+  <si>
+    <t>obra; solicitação; projeto; cancelada; atividades; acima; analisar; descrição;  fim; início; obras; realizada; setor; vre; administrativo; anexos; aprovado; atores; autor; bizagi; castelo; centro; chancela; comitê; complexidade; coordenadores; coordenação; coreto; curso; data; desconexão; dono; elaboração; eliminadas; enviar; estimada; estratégico; finalizada; Obra; Projeto; DPO; Pipefy</t>
+  </si>
+  <si>
+    <t>O processo de "Solicitação de Obra (Pipefy)" na Universidade de Fortaleza envolve a solicitação e acompanhamento de um projeto de obra, desde o cadastro inicial da demanda até a aprovação final e execução. O fluxo inicia com a inserção dos detalhes do projeto no sistema Pipefy, passando por diversas etapas de análise e aprovação, incluindo verificações de viabilidade, orçamento, aprovação de setores responsáveis e a coordenação de infraestrutura. O processo é concluído quando a solicitação é aprovada e o projeto é efetivamente iniciado ou quando é rejeitada, dependendo das aprovações obtidas ao longo do fluxo.</t>
+  </si>
+  <si>
+    <t>O processo de "Proposição de Novos Produtos da Graduação" na Universidade de Fortaleza visa estruturar o desenvolvimento de novos cursos e produtos educacionais. Inicia-se com a identificação de demanda ou proposta por parte de setores específicos, seguida de análises de viabilidade e alinhamento estratégico. O fluxo envolve múltiplas etapas de validação e aprovação, incluindo a análise de mercado, pedagógica e financeira. Conclui-se com a aprovação do projeto pelo conselho superior e a implementação do novo produto, garantindo que todos os requisitos acadêmicos e administrativos sejam atendidos para a sua execução.</t>
+  </si>
+  <si>
+    <t>O processo "Cartão Unifor na Academia" detalha o fluxo de atividades para solicitação, emissão e utilização do cartão de acesso à academia da Universidade de Fortaleza. O processo inicia com a solicitação do cartão pelo aluno ou colaborador, passando por etapas de verificação de elegibilidade, aprovação pelo setor responsável, e a emissão do cartão. Após a emissão, o usuário recebe instruções para o uso correto do cartão, e o controle de acessos é monitorado para garantir o cumprimento das regras da academia. O processo termina com a renovação ou cancelamento do acesso conforme a necessidade do usuário.</t>
+  </si>
+  <si>
+    <t>O processo "Cartão Unifor na Biblioteca" envolve o fluxo para a solicitação, emissão e gerenciamento do cartão de acesso à biblioteca da Universidade de Fortaleza. Inicia com a solicitação do cartão por parte de alunos ou colaboradores, seguida pela verificação de elegibilidade e aprovação pelo setor responsável. Após a aprovação, o cartão é emitido e entregue ao solicitante, que é orientado sobre as regras de uso e acesso. O controle de acessos é realizado de forma contínua para garantir o uso adequado dos recursos da biblioteca. O processo termina com a renovação ou cancelamento do acesso conforme as políticas institucionais.</t>
+  </si>
+  <si>
+    <t>O processo "EAD - Matrículas do 2º Intake" da Universidade de Fortaleza detalha as etapas para a matrícula de novos alunos em cursos a distância no segundo intake. Inicia-se com a captação de potenciais alunos, seguindo pela análise e verificação dos documentos enviados. Após a confirmação dos documentos, o processo continua com a geração de contrato, assinatura digital e a confirmação do pagamento da matrícula. Concluído o pagamento, o aluno é oficialmente matriculado e recebe acesso ao portal acadêmico. O processo termina com o acompanhamento e apoio ao aluno para o início das atividades acadêmicas.</t>
+  </si>
+  <si>
+    <t>O processo "EAD - Matrículas do 1º Intake" da Universidade de Fortaleza abrange as etapas de captação e matrícula de novos alunos para cursos a distância. O fluxo começa com a captação e verificação de documentos dos candidatos, seguido pela geração e assinatura de contratos digitais. Após o pagamento da matrícula, os alunos são matriculados e têm seus acessos ao portal acadêmico liberados. O processo é concluído com o acompanhamento e orientação para garantir o início adequado das atividades acadêmicas.</t>
+  </si>
+  <si>
+    <t>O processo Serviços Gráficos da Universidade de Fortaleza envolve a solicitação, avaliação e execução de serviços gráficos. Inicia-se com o recebimento da demanda pelo cliente e a verificação da necessidade e especificações do serviço. Após aprovações e orçamentos, o trabalho gráfico é executado pela equipe designada. O processo inclui revisões, validações finais, e termina com a entrega do serviço ao cliente e o fechamento do pedido, garantindo controle de qualidade e atendimento às expectativas</t>
+  </si>
+  <si>
+    <t>solicitação; orçamento; aguardar; arquivo; atividades; informações; material; serviço; valor; valores; aprovado; conforme; contas; recebida; fiscal; nota; orçam; serviços; solicitar; acordo; ajustado; ajustes; compra; empresa; encaminhar; formulários; gráfico; impressão; liberação; materia; melhoria; oportunidade; pagamento; patrimônio; pendentes; planejamento; prestação; promocionais; página; realizado; serviços; gráficos</t>
+  </si>
+  <si>
+    <t>atividades; impressão; materia; material; retirada; gráfico; necessita; podem; solicitante; acadêmico; administrativo; aprendendo; aprovado; automatizadas; autor; autorização; bizagi; demora; desconexão; descrição; eliminadas; ensinando; excesso; frustações; fundação; garantia; gestão; gráfica; interna; melhoria; oportunidade; prova; gráfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+O processo da Universidade de Fortaleza abrange a solicitação e execução de impressões internas de materiais acadêmicos e administrativos. Inicia com a autorização e análise do material, seguida pela realização do serviço gráfico. Dependendo da necessidade de acabamento, o material é finalizado e encaminhado ao solicitante, concluindo o processo com a comunicação via CI (Comunicação Interna) para a retirada do material. O fluxo visa garantir a eficiência no atendimento às demandas internas de impressão.</t>
+  </si>
+  <si>
+    <t>aprovação; pagamento; analisar; aprovar; atividades; contas; informação; pagar; programação; supervisor; administrativa; anterior; aprendendo; aprovada; aprovado; aprovadores; bizagi; chancela; cliente; conforme; criadas;  definido; demora; desconexão; descrição; deverá; diferenciar, tesouraria, contas; pagar, TESOURARIA, CONTAS, PAGAR</t>
+  </si>
+  <si>
+    <t>O processo "Solicitação de Pagamento" da Universidade de Fortaleza envolve a solicitação e a aprovação de pagamentos para fornecedores. O fluxo inicia com a requisição de pagamento, passando por etapas de conferência e validação dos documentos fiscais, aprovação pelas áreas financeiras e contábeis, até a emissão da ordem de pagamento. O processo garante o controle e conformidade dos pagamentos realizados, com verificações e aprovações em múltiplos níveis para assegurar a qualidade e integridade dos dados financeiros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+O processo de "Fretes" na Universidade de Fortaleza começa com o recebimento da relação de fretes do mês, seguido pela análise e verificação de inconsistências. Caso existam, são sanadas antes de gerar os CTEs (Conhecimento de Transporte Eletrônico). A partir daí, o processo segue para a aprovação ou rejeição do pagamento. Se o pagamento for rejeitado, o processo é encerrado; se aprovado, o título de pagamento é gerado e o pagamento é concluído. Este fluxo garante a conformidade e precisão na gestão de pagamentos de fretes.</t>
+  </si>
+  <si>
+    <t>atividades; fretes; patrimônio; relação; inconsistências; podem; administrativa; analisar; aprendendo; aprovador; atores; automatizadas; autor; chancela; cliente; código; desconexão; descrição; dono; eliminadas; encaminhado; ensinando; financeira; frustações; fundação; garantia; gerência; gestão; interestadual; melhoria; média; mês; oportunidade; qualidade; queiroz; recebida; recebimento; serviço; sincronizadas; transporte; frete, patrimônio</t>
+  </si>
+  <si>
+    <t>O processo "SISPLAN - Encerramento Orçamento" da Universidade de Fortaleza envolve a finalização do exercício orçamentário, começando pela notificação da data de suspensão das compras e pela transferência de saldos para o próximo exercício. A importação de dados é feita de forma automática ou manual, seguida pela análise e ajuste de saldos, se necessário. Dependendo da necessidade de compras urgentes, o processo pode incluir a criação de requisições específicas para o próximo exercício ou o encaminhamento de orientações aos setores, garantindo que o orçamento seja encerrado de forma organizada e eficiente.</t>
+  </si>
+  <si>
+    <t>O processo de "Contabilidade" na Universidade de Fortaleza abrange o recebimento diário e mensal de dados financeiros, integrando informações de diversos sistemas (EBS, SIGRPO, SYNCHRO) para registrar e reconciliar contas, faturas e pagamentos. A reconciliação mensal é realizada em etapas ao longo do mês, envolvendo múltiplas verificações e ajustes de custos e despesas. O processo culmina na geração de demonstrativos contábeis e relatórios, garantindo a precisão e a transparência das informações financeiras da instituição.</t>
+  </si>
+  <si>
+    <t>competência; informações; mês; recebimento; mensal; recepcionar; útil; contabilidade; contas; gerar; integração; lote; almoxarifado; aprovado; atividades; ativo; autor; bizagi; cliente; conciliação; contábeis; criar; custos; demonstrações; descrição; dono; eliminadas; emissão; fechamento; fiscais; folha; garantia; diplan; contabilidade</t>
+  </si>
+  <si>
+    <t>vigência; convênio; atividades; cancelamento; cursos; data; gados; renovação; alunos; início; suspensas; universidade; acompanhamento;  aprovado; após; assinado;  automatica; bizagi; cadastro; campos; chancela; cliente; colaboradores; continente; convênio; convênios; eliminadas; envolvidas; estrangeiros; excesso; frustações; garantia; gestão</t>
+  </si>
+  <si>
+    <t>O processo de "Gestão de Convênios" na Universidade de Fortaleza abrange o gerenciamento do ciclo de vida de convênios firmados com a instituição. Ele começa com o cadastro de novos convênios e inclui o acompanhamento da vigência com alertas para renovação ou cancelamento. Se um convênio não for renovado, ele é inativado após seis meses do término da vigência; caso contrário, um novo convênio vinculado ao original é gerado. O fluxo é automatizado pelo sistema Pipefy, que envia mensagens de lembrete para os envolvidos sobre o status e necessidade de ação, garantindo uma gestão eficiente e proativa dos convênios.</t>
+  </si>
+  <si>
+    <t>O processo de "Abertura de Conta Bancária" na Universidade de Fortaleza visa estabelecer uma nova conta bancária para a instituição, envolvendo etapas de aprovação, coleta de documentação e comunicação com o banco. Após a solicitação inicial, o fluxo segue para a validação e aprovação de documentos pelo setor financeiro. Em seguida, o banco responsável abre a conta, e os dados da nova conta são comunicados internamente para atualização nos sistemas de gestão financeira. Este processo garante conformidade e eficiência na integração de novas contas bancárias ao sistema financeiro da universidade.</t>
+  </si>
+  <si>
+    <t>O processo de "Admissão de Empregados" na Universidade de Fortaleza envolve etapas de triagem, coleta de documentos, análise de conformidade e integração do novo funcionário. Após a aprovação inicial, o candidato submete a documentação necessária para análise pelo RH, que verifica conformidade e aprova ou solicita ajustes. Com a aprovação, o funcionário é integrado ao sistema da universidade, recebendo informações e instruções para início das atividades. Esse fluxo de trabalho assegura a conformidade legal e eficiência na admissão de novos colaboradores, minimizando erros e retrabalhos.</t>
+  </si>
+  <si>
+    <t>cpf; ano; crachá; custo; aprendiz; comprovante; data; documentação; filhos; importação; informações; acadêmico; admissão; cargo; centro; código; docente; encaminhamento; foto; novos; obrigatório; obrigatórios; xerox; atividades; atual; cadastro; candidato; consta; criação; curso; descrição; deverão; documentos; empregados; formação; funcionário; gerada; integrar; integração; pendência; DRH; setor; pessoal</t>
+  </si>
+  <si>
+    <t>O processo de "Carga Horária Docente" na Universidade de Fortaleza envolve a coleta de informações sobre a carga horária dos professores, sua validação pelo setor responsável e a integração desses dados nos sistemas da universidade. Após a proposta de carga horária ser enviada, ela passa por uma revisão para garantir que está de acordo com as diretrizes institucionais. Caso haja necessidade de ajustes, o processo retorna para correção. Uma vez aprovada, a carga horária é registrada nos sistemas, garantindo que a distribuição de trabalho dos docentes esteja alinhada às necessidades acadêmicas e operacionais da universidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folha; pagamento; movimento; configurar; desconto; descontos; funcionário; requerimento; setor; verba; atividades; competência; nome; parcela; período; titulo; valor; código; data; envio; funcionario;movimentação; nova; pessoal; qualidade; tabela; ano; apenas; aprendendo; aprovado; arquivos; autor; benefícios; bizagi; chancela; cliente; configuração; confirmar; consulta; contábil; contáblidos;  DRH; SETOR; PESSOAL; GENTE; </t>
+  </si>
+  <si>
+    <t>carga; horária; informações; atividades; tela; acadêmico; docente; docentes; setor; validação; apresentar; cargo; contei; forma; horas; média; período; pessoal; podem; possibilidade; possuem; professores; tempo; validada; académico; administrativas; administrativo; ajusta; ajustes; alteração; alterações; anterior; aprendendo; aprovado; arquivo; ator; atualização; automatizadas; autor; autorização; base; bizagi; categoria; centros; chancela; DRH; SETOR; PESSOAL; GENTE; GESTÃO</t>
+  </si>
+  <si>
+    <t>O processo de "Descontos na Folha de Pagamento" envolve a recepção de dados de diversas fontes, análise e categorização de descontos, verificação de conformidade e ajustes necessários. Após essa etapa, os descontos são aplicados na folha de pagamento, garantindo a precisão e conformidade. O sistema é atualizado e relatórios são gerados para manter a transparência e controle dos descontos aplicados, assegurando que estejam de acordo com as políticas internas da Universidade de Fortaleza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campus; compra; formas; formulário; loja; pessoal; podem; aee; analisar; apre; aprendendo; aprovado; assinar; automatizadas; autor; bizagi; campus; chancela; cliente; competência; controle; definida; demora; desconexão; desconto; descrição; eliminadas; encaminhadas; ensinando;  estoque; fundação; físico; garantia; gestão; implantação; DRH; SETOR; PESSOAL; GENTE; </t>
+  </si>
+  <si>
+    <t>O processo "Loja do Campus - Descontos em Folha" envolve o registro de pedidos de compras feitos na loja do campus, a validação e o processamento dos descontos aplicáveis aos funcionários. Após a verificação de conformidade dos descontos, o sistema ajusta a folha de pagamento para refletir as deduções, assegurando que os valores estejam corretamente aplicados e documentados, mantendo transparência e controle nas transações realizadas.</t>
+  </si>
+  <si>
+    <t>O processo de "Captação de Convênio Internacional" envolve etapas desde a análise de viabilidade até a formalização e monitoramento do convênio. Inicia com a avaliação das condições e potencial de parceria, passando pela elaboração de propostas e negociação de termos, seguido pela validação jurídica e aprovações internas. Após firmado, o convênio é monitorado para garantir o cumprimento das cláusulas e resultados esperados, com revisões periódicas e ajustes necessários, assegurando alinhamento estratégico e conformidade com as normas institucionais.</t>
+  </si>
+  <si>
+    <t>pagamento; solicitação; emissão; após; valor; aprovação; fiscal; mês; nota; pagamentos; prazo; solicitações; acordo; adicionados; administração; aprovadores; cada; compra; dia; docentes; emitida; fuso; gerar; necessidade; ovo;  realizado; recebimento; reitoria; analisar;  anteriormente; aprovada; aprovadortay; aprovados; arquivo; assessoria; aulas; autor; autorizar; ava; bizagi; calendário;EAD, PÓS GRADUAÇÃO; LATO SENSU; ovo; professores</t>
+  </si>
+  <si>
+    <t>aluno; contato; dado; formulário; funcionário; ligação; papsa; aprendendo; atualizar; autor; avaliação; base; bizagi; chancela; comunicado; comunicados; demora; diplan; eficazes; ensinando; entra; enviado; excesso; expediente; feitas; filas; fim; Avaliação; Egresso; Graduação</t>
+  </si>
+  <si>
+    <t>O processo de "Avaliação de Egresso - Graduação" envolve a preparação e envio de questionários de avaliação para ex-alunos da graduação, com o objetivo de coletar feedback sobre sua experiência e empregabilidade após a formatura. Inicialmente, a equipe de Acompanhamento de Egressos cria uma base de dados de contatos e organiza o cronograma de envios. Dependendo da resposta do egresso, o processo segue diferentes caminhos, podendo incluir o reenvio do questionário ou a coleta de informações adicionais. O ciclo de avaliação é concluído com a consolidação dos dados para análise e melhoria contínua do curso.</t>
+  </si>
+  <si>
+    <t>O processo de "Solicitação de Pagamento de Professores OVO" abrange a verificação de informações sobre as horas trabalhadas pelos professores, seguido pela consolidação de dados e aprovação de pagamento. Inicia-se com a entrada dos dados no sistema, que são analisados e, se necessário, ajustados. Após essa verificação, o processo segue para a aprovação de diferentes setores, incluindo a validação financeira e administrativa. Por fim, a execução do pagamento é realizada, encerrando o processo com o registro e arquivamento das informações.</t>
+  </si>
+  <si>
+    <t>aluno; avaliação; contato; papsa; atividades; comunicados;drive; eficazes; formulário; funcionário; pasta; pesquisa; seguinte; versão; ama; analista; aprendendo; atendeu; através; atualizar; autor; avatiação; bizagi; captação; cliente; comunicado; demora; desconexão; descrição; dias; diplan; disponibilizadas; disponibiltadas; eliminadas; ensinando; enviado; Avaliação; Egresso; Pós-Graduação</t>
+  </si>
+  <si>
+    <t>O processo de "Avaliação de Egresso - Pós-Graduação" consiste na coleta de feedback dos ex-alunos de cursos de pós-graduação. A equipe responsável prepara uma base de dados de contatos e organiza o envio de questionários em diferentes fases, segmentando os ex-alunos por especialidade. Os egressos são contatados para responder ao questionário, e, dependendo de suas respostas, o processo pode incluir novas tentativas de contato ou compilação das respostas recebidas. Ao final, as informações são consolidadas para análise, visando aprimorar os cursos de pós-graduação oferecidos pela instituição.</t>
+  </si>
+  <si>
+    <t>projeto; atividades; analista; informações; pasta; ajuste; concedente; criar;  disco; gcp; receber; submissão; ajustes; assinado; assinatura; assinaturas; assistente; atualizar; GCP; submissão, projeto; Diplan; Submissão;projetos</t>
+  </si>
+  <si>
+    <t>O processo de "Submissão de projetos ao GCP" envolve a preparação, revisão e aprovação de propostas de projetos pela equipe do GCP. Os projetos são inicialmente submetidos pelos proponentes, que passam por uma análise preliminar de documentação e requisitos. Em seguida, há uma etapa de avaliação pela equipe técnica, que pode solicitar ajustes ou aprovações adicionais. Após as correções, o projeto é revisado novamente e, se aprovado, segue para a implementação ou registro final no sistema, dependendo do resultado da avaliação. O processo assegura a conformidade dos projetos com as diretrizes institucionais.</t>
+  </si>
+  <si>
+    <t>aluno; valor; pagamento; disciplina; recebido; desconto; alunos; ava; curso; ovo; percentual; apresentar; documentação; matrícula; multa; nota; realizado; tentativas; crédito; desistência; devolução; financeiro; informações; juros; oferta; quantidade; repasse; acompanhamento; apenas; assinaturas; atividade; avaliação; carga; cartão; caso; certificado; completa; jornada; EaD; PÓS LATO SENSU EAD, EAD, VRE, SECRETARIA ACADÊMICA, BENEFÍCIOS; FINANCIAMENTOS</t>
+  </si>
+  <si>
+    <t>O diagrama "Jornada do Aluno Pós EaD" ilustra o fluxo completo de um aluno no Ensino a Distância (EaD) da Pós-Graduação, desde o processo de captação e matrícula até a conclusão do curso. Inclui etapas como admissão, realização de atividades acadêmicas, avaliações, suporte administrativo e comunicação com a instituição. O processo destaca pontos de decisão críticos, como aprovação de documentos, interações com plataformas de ensino, e momentos de contato para feedback e suporte ao aluno, garantindo uma experiência educacional estruturada e eficiente.</t>
+  </si>
+  <si>
+    <t>O processos de "Solicitação de Pagamento de Projetos" detalha o processo de solicitação e aprovação de pagamentos relacionados a projetos, desde a submissão inicial do pedido até a sua aprovação final e execução. O fluxo inclui etapas de verificação de documentos, validação de informações, aprovação de múltiplos responsáveis, e o registro final no sistema financeiro. A utilização do Pipefy é destacada para facilitar a gestão e automação do processo, garantindo a conformidade e eficiência no controle de pagamentos de projetos acadêmicos ou administrativos.</t>
+  </si>
+  <si>
+    <t>O diagrama "Inteligência de Mercado (BI)" ilustra o fluxo de trabalho para a solicitação, desenvolvimento e ajuste de análises de mercado dentro de uma instituição. O processo começa com a solicitação do serviço através de um formulário online e envolve várias etapas de desenvolvimento, como a criação de painéis, ajustes conforme necessário e validações internas. Após a análise ser realizada, há uma revisão e possíveis ajustes antes da entrega final ao solicitante. O objetivo é garantir que todas as análises estejam alinhadas com as necessidades de mercado e os padrões internos de qualidade.</t>
+  </si>
+  <si>
+    <t>painel;  tipo; mercado; selecionar;  treinamento; unir; análse; aprovado; atendida; atualização; beco; bizagi; coca; comparativa; concorrentes; concorrência; consultar; cursos; dado; origem; desconto; desenvolvimento; ensino; ermento; escolher; existente; business; intelligence; Power; BI; Power BI</t>
+  </si>
+  <si>
+    <t>O documento de cadastro de fornecedores apresenta uma lista de siglas e termos utilizados em um documento, explicando seus significados. Entre eles, destacam-se CNPJ (Cadastro Nacional de Pessoa Jurídica), PDM (Padrão Descritivo de Material), PJ (Pessoa Jurídica), PF (Pessoa Física), e Invoice (Fornecedor Importação). Também são explicadas as siglas de divisões e sistemas, como DPSS (Divisão de Patrimônio, Suprimento e Serviço), PIPEFY (Plataforma de solicitações de cadastro/atualização de itens e fornecedores), EBS (E-Business Suíte, da Oracle), LGPD (Lei Geral de Proteção de Dados Pessoais) e SLA (Acordo de Nível de Serviço).</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1895,9 +1996,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1969,6 +2067,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2188,16 +2301,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="D64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="92.7109375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="92.7109375" style="40" customWidth="1"/>
     <col min="3" max="3" width="92.7109375" customWidth="1"/>
-    <col min="4" max="4" width="79" style="41" customWidth="1"/>
+    <col min="4" max="4" width="83.28515625" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -2205,16 +2318,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2223,8 +2336,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>361</v>
+      <c r="G1" s="41" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="135.75" thickBot="1">
@@ -2232,19 +2345,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>515</v>
+        <v>450</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>491</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="G2" s="23">
         <v>45441</v>
@@ -2255,22 +2368,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>516</v>
+        <v>451</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>492</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="409.6" thickBot="1">
@@ -2278,19 +2391,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>517</v>
+        <v>452</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>493</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="G4" s="23">
         <v>45455</v>
@@ -2301,19 +2414,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>518</v>
+        <v>453</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>494</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>354</v>
+      <c r="E5" s="47" t="s">
+        <v>331</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="G5" s="24">
         <v>45513</v>
@@ -2324,19 +2437,19 @@
         <v>14</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>519</v>
+        <v>454</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>495</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>468</v>
+        <v>332</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>444</v>
       </c>
       <c r="G6" s="23">
         <v>45463</v>
@@ -2347,19 +2460,19 @@
         <v>16</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>520</v>
+        <v>455</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>496</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="48" t="s">
-        <v>356</v>
+      <c r="E7" s="47" t="s">
+        <v>333</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="G7" s="24">
         <v>45509</v>
@@ -2369,20 +2482,20 @@
       <c r="A8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>480</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>521</v>
+      <c r="B8" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>497</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>470</v>
+        <v>334</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>446</v>
       </c>
       <c r="G8" s="23">
         <v>45474</v>
@@ -2393,19 +2506,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>522</v>
+        <v>449</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>498</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>471</v>
+        <v>335</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>447</v>
       </c>
       <c r="G9" s="23">
         <v>45489</v>
@@ -2415,20 +2528,20 @@
       <c r="A10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>523</v>
+      <c r="B10" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>499</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="G10" s="23">
         <v>45503</v>
@@ -2441,17 +2554,17 @@
       <c r="B11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>484</v>
+        <v>337</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>460</v>
       </c>
       <c r="G11" s="23">
         <v>44740</v>
@@ -2471,10 +2584,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>485</v>
+        <v>340</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>461</v>
       </c>
       <c r="G12" s="23">
         <v>44893</v>
@@ -2487,17 +2600,17 @@
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="51" t="s">
-        <v>486</v>
+      <c r="C13" s="50" t="s">
+        <v>462</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>487</v>
+        <v>341</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>463</v>
       </c>
       <c r="G13" s="28">
         <v>45248</v>
@@ -2529,17 +2642,17 @@
       <c r="B14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="54" t="s">
-        <v>493</v>
+      <c r="C14" s="53" t="s">
+        <v>469</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>488</v>
+        <v>342</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>464</v>
       </c>
       <c r="G14" s="23">
         <v>44890</v>
@@ -2553,16 +2666,16 @@
         <v>37</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="G15" s="31">
         <v>44890</v>
@@ -2591,20 +2704,20 @@
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>491</v>
+      <c r="C16" s="53" t="s">
+        <v>467</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="G16" s="31">
         <v>44890</v>
@@ -2636,17 +2749,17 @@
       <c r="B17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>494</v>
+      <c r="C17" s="54" t="s">
+        <v>470</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="56" t="s">
-        <v>368</v>
+      <c r="E17" s="55" t="s">
+        <v>345</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="G17" s="31">
         <v>44890</v>
@@ -2675,20 +2788,20 @@
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="56" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="D18" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>497</v>
+        <v>346</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>473</v>
       </c>
       <c r="G18" s="31">
         <v>44890</v>
@@ -2701,19 +2814,19 @@
       <c r="B19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="54" t="s">
-        <v>498</v>
-      </c>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="G19" s="43">
+        <v>476</v>
+      </c>
+      <c r="G19" s="42">
         <v>44894</v>
       </c>
     </row>
@@ -2731,10 +2844,10 @@
         <v>52</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="G20" s="23">
         <v>45075</v>
@@ -2748,16 +2861,16 @@
         <v>54</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="G21" s="23">
         <v>44711</v>
@@ -2767,20 +2880,20 @@
       <c r="A22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="54" t="s">
-        <v>504</v>
-      </c>
-      <c r="D22" s="41" t="s">
+      <c r="C22" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" s="40" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="G22" s="23">
         <v>44957</v>
@@ -2794,16 +2907,16 @@
         <v>60</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D23" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="G23" s="23">
         <v>44959</v>
@@ -2813,20 +2926,20 @@
       <c r="A24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G24" s="23">
         <v>45100</v>
@@ -2840,16 +2953,16 @@
         <v>65</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D25" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="G25" s="23">
         <v>44796</v>
@@ -2859,20 +2972,20 @@
       <c r="A26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="40" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="G26" s="23">
         <v>45134</v>
@@ -2886,16 +2999,16 @@
         <v>70</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="G27" s="23">
         <v>45135</v>
@@ -2909,16 +3022,16 @@
         <v>73</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="G28" s="23">
         <v>45500</v>
@@ -2931,17 +3044,17 @@
       <c r="B29" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="59" t="s">
-        <v>528</v>
+      <c r="C29" s="58" t="s">
+        <v>504</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="G29" s="23">
         <v>45500</v>
@@ -2955,16 +3068,16 @@
         <v>79</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>530</v>
+        <v>357</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>506</v>
       </c>
       <c r="G30" s="23">
         <v>45500</v>
@@ -2978,22 +3091,22 @@
         <v>81</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="G31" s="23">
         <v>45061</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="45">
+    <row r="32" spans="1:26" ht="195">
       <c r="A32" s="10" t="s">
         <v>82</v>
       </c>
@@ -3001,752 +3114,752 @@
         <v>83</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>353</v>
+        <v>359</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>510</v>
       </c>
       <c r="G32" s="23">
         <v>45393</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="72">
+    <row r="33" spans="1:7" ht="85.5">
       <c r="A33" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>87</v>
+      <c r="C33" s="59" t="s">
+        <v>511</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G33" s="23">
         <v>45126</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="72">
+    <row r="34" spans="1:7" ht="210">
       <c r="A34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="C34" s="8" t="s">
-        <v>90</v>
+        <v>512</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>353</v>
+        <v>361</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>513</v>
       </c>
       <c r="G34" s="23">
         <v>45393</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57.75">
+    <row r="35" spans="1:7" ht="240">
       <c r="A35" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>93</v>
+        <v>514</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>353</v>
+        <v>362</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>515</v>
       </c>
       <c r="G35" s="23">
         <v>45393</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="225">
       <c r="A36" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>96</v>
+        <v>516</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>353</v>
+        <v>364</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>517</v>
       </c>
       <c r="G36" s="23">
         <v>45393</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="57.75">
+    <row r="37" spans="1:7" ht="225">
       <c r="A37" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
+        <v>519</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>353</v>
+        <v>363</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>518</v>
       </c>
       <c r="G37" s="23">
         <v>45128</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="57.75">
+    <row r="38" spans="1:7" ht="180">
       <c r="A38" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>103</v>
+        <v>520</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>353</v>
+      <c r="E38" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>529</v>
       </c>
       <c r="G38" s="23">
         <v>45201</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="57.75">
+    <row r="39" spans="1:7" ht="210">
       <c r="A39" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>103</v>
+        <v>521</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>353</v>
+        <v>366</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>528</v>
       </c>
       <c r="G39" s="23">
         <v>45201</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57.75">
+    <row r="40" spans="1:7" ht="225">
       <c r="A40" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>109</v>
+        <v>522</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>353</v>
+        <v>103</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>527</v>
       </c>
       <c r="G40" s="23">
         <v>45139</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="57.75">
+    <row r="41" spans="1:7" ht="210">
       <c r="A41" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G41" s="44">
+      <c r="E41" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="G41" s="43">
         <v>45175</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="72">
+    <row r="42" spans="1:7" ht="225">
       <c r="A42" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>353</v>
+      <c r="E42" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>525</v>
       </c>
       <c r="G42" s="23">
         <v>44797</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="57.75">
+    <row r="43" spans="1:7" ht="210">
       <c r="A43" s="10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>119</v>
+        <v>523</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>353</v>
+        <v>112</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>524</v>
       </c>
       <c r="G43" s="23">
         <v>45142</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="72">
+    <row r="44" spans="1:7" ht="180">
       <c r="A44" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>123</v>
+        <v>531</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>353</v>
+        <v>115</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>530</v>
       </c>
       <c r="G44" s="23">
         <v>45170</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="57.75">
+    <row r="45" spans="1:7" ht="210">
       <c r="A45" s="10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>127</v>
+        <v>117</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>532</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>353</v>
+        <v>115</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>533</v>
       </c>
       <c r="G45" s="23">
         <v>45170</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57.75">
+    <row r="46" spans="1:7" ht="180">
       <c r="A46" s="10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>353</v>
+        <v>534</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>535</v>
       </c>
       <c r="G46" s="23">
         <v>44361</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="72">
+    <row r="47" spans="1:7" ht="195">
       <c r="A47" s="10" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>134</v>
+        <v>537</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G47" s="45">
+        <v>123</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>374</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="G47" s="44">
         <v>45180</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="57.75">
+    <row r="48" spans="1:7" ht="225">
       <c r="A48" s="10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>353</v>
+      <c r="E48" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>538</v>
       </c>
       <c r="G48" s="23">
         <v>45177</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="57.75">
+    <row r="49" spans="1:7" ht="195">
       <c r="A49" s="10" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>141</v>
+        <v>540</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G49" s="43">
+        <v>129</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="G49" s="42">
         <v>45160</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="57.75">
+    <row r="50" spans="1:7" ht="225">
       <c r="A50" s="10" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>145</v>
+        <v>541</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>353</v>
+        <v>132</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>542</v>
       </c>
       <c r="G50" s="23">
         <v>45169</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="45">
+    <row r="51" spans="1:7" ht="210">
       <c r="A51" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>353</v>
+        <v>136</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>543</v>
       </c>
       <c r="G51" s="23">
         <v>45194</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="72">
+    <row r="52" spans="1:7" ht="210">
       <c r="A52" s="22" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>153</v>
+        <v>138</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>545</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>353</v>
+        <v>139</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>544</v>
       </c>
       <c r="G52" s="23">
         <v>45243</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="72">
+    <row r="53" spans="1:7" ht="225">
       <c r="A53" s="10" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>157</v>
+        <v>141</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>548</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>353</v>
+        <v>142</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>546</v>
       </c>
       <c r="G53" s="23">
         <v>45243</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="72">
+    <row r="54" spans="1:7" ht="180">
       <c r="A54" s="10" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>161</v>
+        <v>547</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>353</v>
+        <v>381</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>549</v>
       </c>
       <c r="G54" s="23">
         <v>44095</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="57.75">
+    <row r="55" spans="1:7" ht="165">
       <c r="A55" s="10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>164</v>
+        <v>550</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>353</v>
+        <v>147</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>551</v>
       </c>
       <c r="G55" s="23">
         <v>45244</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="72">
+    <row r="56" spans="1:7" ht="210">
       <c r="A56" s="10" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>353</v>
+        <v>132</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>552</v>
       </c>
       <c r="G56" s="23">
         <v>45247</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="72">
+    <row r="57" spans="1:7" ht="195">
       <c r="A57" s="22" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>172</v>
+        <v>553</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>153</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>353</v>
+        <v>384</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>556</v>
       </c>
       <c r="G57" s="23">
         <v>45223</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="45">
+    <row r="58" spans="1:7" ht="210">
       <c r="A58" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>174</v>
+        <v>154</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>155</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>175</v>
+        <v>554</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>353</v>
+      <c r="E58" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>555</v>
       </c>
       <c r="G58" s="23">
         <v>45423</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="57.75">
+    <row r="59" spans="1:7" ht="210">
       <c r="A59" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>177</v>
+        <v>156</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>178</v>
+        <v>557</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E59" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>353</v>
+      <c r="E59" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>558</v>
       </c>
       <c r="G59" s="23">
         <v>45423</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="45">
+    <row r="60" spans="1:7" ht="210">
       <c r="A60" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>180</v>
+        <v>158</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>159</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>464</v>
+        <v>559</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>353</v>
+      <c r="E60" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>560</v>
       </c>
       <c r="G60" s="23">
         <v>45499</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="72">
+    <row r="61" spans="1:7" ht="195">
       <c r="A61" s="10" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>353</v>
+        <v>561</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="G61" s="23">
         <v>45478</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="57.75">
+    <row r="62" spans="1:7" ht="195">
       <c r="A62" s="10" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>353</v>
+      <c r="E62" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>563</v>
       </c>
       <c r="G62" s="23">
         <v>45498</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45">
+    <row r="63" spans="1:7" ht="195">
       <c r="A63" s="10" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>189</v>
+        <v>166</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>565</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>353</v>
+      <c r="E63" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>564</v>
       </c>
       <c r="G63" s="23">
         <v>45509</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="57.75">
+    <row r="64" spans="1:7" ht="225">
       <c r="A64" s="10" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>353</v>
+      <c r="E64" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>566</v>
       </c>
       <c r="G64" s="23">
         <v>44890</v>
@@ -3754,22 +3867,22 @@
     </row>
     <row r="65" spans="1:26" ht="72">
       <c r="A65" s="10" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G65" s="23">
         <v>45168</v>
@@ -3777,22 +3890,22 @@
     </row>
     <row r="66" spans="1:26" ht="72">
       <c r="A66" s="10" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G66" s="23">
         <v>45187</v>
@@ -3800,22 +3913,22 @@
     </row>
     <row r="67" spans="1:26" ht="45">
       <c r="A67" s="10" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G67" s="23">
         <v>44901</v>
@@ -3823,45 +3936,45 @@
     </row>
     <row r="68" spans="1:26" ht="57.75">
       <c r="A68" s="10" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G68" s="23">
         <v>44890</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="45">
-      <c r="A69" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>207</v>
+      <c r="A69" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>184</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D69" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E69" s="37" t="s">
-        <v>419</v>
+      <c r="E69" s="36" t="s">
+        <v>396</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G69" s="23">
         <v>44890</v>
@@ -3887,23 +4000,23 @@
       <c r="Z69" s="12"/>
     </row>
     <row r="70" spans="1:26" ht="45">
-      <c r="A70" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>210</v>
+      <c r="A70" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>187</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E70" s="37" t="s">
-        <v>420</v>
+      <c r="E70" s="36" t="s">
+        <v>397</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G70" s="23">
         <v>44890</v>
@@ -3929,23 +4042,23 @@
       <c r="Z70" s="12"/>
     </row>
     <row r="71" spans="1:26" ht="45">
-      <c r="A71" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>213</v>
+      <c r="A71" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>190</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E71" s="37" t="s">
-        <v>421</v>
+      <c r="E71" s="36" t="s">
+        <v>398</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G71" s="23">
         <v>44890</v>
@@ -3971,23 +4084,23 @@
       <c r="Z71" s="12"/>
     </row>
     <row r="72" spans="1:26" ht="45">
-      <c r="A72" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>215</v>
+      <c r="A72" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>192</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D72" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E72" s="37" t="s">
-        <v>422</v>
+      <c r="E72" s="36" t="s">
+        <v>399</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G72" s="23">
         <v>44890</v>
@@ -4013,25 +4126,25 @@
       <c r="Z72" s="12"/>
     </row>
     <row r="73" spans="1:26" ht="45">
-      <c r="A73" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>218</v>
+      <c r="A73" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>195</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D73" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>423</v>
+        <v>196</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>400</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G73" s="46">
+        <v>330</v>
+      </c>
+      <c r="G73" s="45">
         <v>44902</v>
       </c>
       <c r="H73" s="12"/>
@@ -4055,25 +4168,25 @@
       <c r="Z73" s="12"/>
     </row>
     <row r="74" spans="1:26" ht="45">
-      <c r="A74" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>221</v>
+      <c r="A74" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>198</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>424</v>
+        <v>199</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>401</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G74" s="46">
+        <v>330</v>
+      </c>
+      <c r="G74" s="45">
         <v>44958</v>
       </c>
       <c r="H74" s="12"/>
@@ -4098,22 +4211,22 @@
     </row>
     <row r="75" spans="1:26" ht="57.75">
       <c r="A75" s="10" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G75" s="23">
         <v>44890</v>
@@ -4121,22 +4234,22 @@
     </row>
     <row r="76" spans="1:26" ht="57.75">
       <c r="A76" s="10" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G76" s="23">
         <v>44890</v>
@@ -4144,22 +4257,22 @@
     </row>
     <row r="77" spans="1:26" ht="57.75">
       <c r="A77" s="22" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G77" s="23">
         <v>44890</v>
@@ -4167,22 +4280,22 @@
     </row>
     <row r="78" spans="1:26" ht="72">
       <c r="A78" s="10" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G78" s="23">
         <v>44890</v>
@@ -4190,22 +4303,22 @@
     </row>
     <row r="79" spans="1:26" ht="57.75">
       <c r="A79" s="10" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G79" s="23">
         <v>44890</v>
@@ -4213,22 +4326,22 @@
     </row>
     <row r="80" spans="1:26" ht="72">
       <c r="A80" s="10" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G80" s="23">
         <v>45096</v>
@@ -4236,22 +4349,22 @@
     </row>
     <row r="81" spans="1:26" ht="72">
       <c r="A81" s="10" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G81" s="23">
         <v>45159</v>
@@ -4259,47 +4372,47 @@
     </row>
     <row r="82" spans="1:26" ht="57.75">
       <c r="A82" s="10" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E82" s="36" t="s">
-        <v>432</v>
+        <v>220</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>409</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G82" s="23">
         <v>45159</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="45">
-      <c r="A83" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B83" s="40" t="s">
-        <v>251</v>
+      <c r="A83" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>228</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D83" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="37" t="s">
-        <v>433</v>
+      <c r="E83" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G83" s="46">
+        <v>330</v>
+      </c>
+      <c r="G83" s="45">
         <v>44890</v>
       </c>
       <c r="H83" s="12"/>
@@ -4324,22 +4437,22 @@
     </row>
     <row r="84" spans="1:26" ht="57.75">
       <c r="A84" s="10" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G84" s="23">
         <v>45163</v>
@@ -4347,22 +4460,22 @@
     </row>
     <row r="85" spans="1:26" ht="72">
       <c r="A85" s="10" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G85" s="23">
         <v>45166</v>
@@ -4370,47 +4483,47 @@
     </row>
     <row r="86" spans="1:26" ht="72">
       <c r="A86" s="10" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G86" s="23">
         <v>45163</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="45">
-      <c r="A87" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="B87" s="39" t="s">
-        <v>263</v>
+      <c r="A87" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>240</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D87" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="E87" s="37" t="s">
-        <v>437</v>
+        <v>241</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>414</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G87" s="46">
+        <v>330</v>
+      </c>
+      <c r="G87" s="45">
         <v>44888</v>
       </c>
       <c r="H87" s="12"/>
@@ -4435,45 +4548,45 @@
     </row>
     <row r="88" spans="1:26" ht="72">
       <c r="A88" s="10" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="36" t="s">
-        <v>438</v>
+      <c r="E88" s="35" t="s">
+        <v>415</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G88" s="43">
+        <v>330</v>
+      </c>
+      <c r="G88" s="42">
         <v>44946</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="72">
       <c r="A89" s="10" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G89" s="23">
         <v>45494</v>
@@ -4481,45 +4594,45 @@
     </row>
     <row r="90" spans="1:26" ht="72">
       <c r="A90" s="10" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G90" s="43">
+        <v>330</v>
+      </c>
+      <c r="G90" s="42">
         <v>45104</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="45">
       <c r="A91" s="10" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G91" s="23">
         <v>45170</v>
@@ -4527,47 +4640,47 @@
     </row>
     <row r="92" spans="1:26" ht="45">
       <c r="A92" s="10" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G92" s="23">
         <v>45170</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="45">
-      <c r="A93" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="B93" s="39" t="s">
-        <v>283</v>
+      <c r="A93" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>260</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D93" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E93" s="37" t="s">
-        <v>443</v>
+        <v>261</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>420</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G93" s="46">
+        <v>330</v>
+      </c>
+      <c r="G93" s="45">
         <v>45146</v>
       </c>
       <c r="H93" s="12"/>
@@ -4591,25 +4704,25 @@
       <c r="Z93" s="12"/>
     </row>
     <row r="94" spans="1:26" ht="45">
-      <c r="A94" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="B94" s="39" t="s">
-        <v>286</v>
+      <c r="A94" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>263</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D94" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" s="37" t="s">
-        <v>444</v>
+        <v>261</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G94" s="46">
+        <v>330</v>
+      </c>
+      <c r="G94" s="45">
         <v>45146</v>
       </c>
       <c r="H94" s="12"/>
@@ -4634,22 +4747,22 @@
     </row>
     <row r="95" spans="1:26" ht="45">
       <c r="A95" s="10" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G95" s="23">
         <v>45225</v>
@@ -4657,22 +4770,22 @@
     </row>
     <row r="96" spans="1:26" ht="86.25">
       <c r="A96" s="10" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G96" s="23">
         <v>45225</v>
@@ -4680,22 +4793,22 @@
     </row>
     <row r="97" spans="1:7" ht="72">
       <c r="A97" s="10" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G97" s="23">
         <v>45257</v>
@@ -4703,22 +4816,22 @@
     </row>
     <row r="98" spans="1:7" ht="57.75">
       <c r="A98" s="10" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G98" s="23">
         <v>45257</v>
@@ -4726,22 +4839,22 @@
     </row>
     <row r="99" spans="1:7" ht="57.75">
       <c r="A99" s="10" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G99" s="23">
         <v>45257</v>
@@ -4749,22 +4862,22 @@
     </row>
     <row r="100" spans="1:7" ht="72">
       <c r="A100" s="10" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G100" s="23">
         <v>45271</v>
@@ -4772,22 +4885,22 @@
     </row>
     <row r="101" spans="1:7" ht="72">
       <c r="A101" s="10" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G101" s="23">
         <v>45271</v>
@@ -4795,22 +4908,22 @@
     </row>
     <row r="102" spans="1:7" ht="72">
       <c r="A102" s="10" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G102" s="23">
         <v>45190</v>
@@ -4818,22 +4931,22 @@
     </row>
     <row r="103" spans="1:7" ht="72">
       <c r="A103" s="10" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G103" s="23">
         <v>44876</v>
@@ -4841,22 +4954,22 @@
     </row>
     <row r="104" spans="1:7" ht="72">
       <c r="A104" s="10" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G104" s="23">
         <v>44876</v>
@@ -4864,22 +4977,22 @@
     </row>
     <row r="105" spans="1:7" ht="45">
       <c r="A105" s="10" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G105" s="23">
         <v>43554</v>
@@ -4887,22 +5000,22 @@
     </row>
     <row r="106" spans="1:7" ht="57.75">
       <c r="A106" s="10" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G106" s="23">
         <v>44958</v>
@@ -4910,22 +5023,22 @@
     </row>
     <row r="107" spans="1:7" ht="57.75">
       <c r="A107" s="10" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G107" s="23">
         <v>45131</v>
@@ -4933,22 +5046,22 @@
     </row>
     <row r="108" spans="1:7" ht="57.75">
       <c r="A108" s="10" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G108" s="23">
         <v>45145</v>
@@ -4956,22 +5069,22 @@
     </row>
     <row r="109" spans="1:7" ht="57.75">
       <c r="A109" s="10" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="F109" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G109" s="23">
         <v>45145</v>
@@ -4979,22 +5092,22 @@
     </row>
     <row r="110" spans="1:7" ht="72">
       <c r="A110" s="10" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G110" s="23">
         <v>45145</v>
@@ -5002,22 +5115,22 @@
     </row>
     <row r="111" spans="1:7" ht="45">
       <c r="A111" s="10" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G111" s="23">
         <v>44844</v>
@@ -5025,22 +5138,22 @@
     </row>
     <row r="112" spans="1:7" ht="72">
       <c r="A112" s="10" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G112" s="23">
         <v>45351</v>
@@ -5048,22 +5161,22 @@
     </row>
     <row r="113" spans="1:7" ht="72">
       <c r="A113" s="10" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G113" s="23">
         <v>44860</v>
@@ -5071,22 +5184,22 @@
     </row>
     <row r="114" spans="1:7" ht="72">
       <c r="A114" s="10" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G114" s="23">
         <v>45464</v>
@@ -6005,8 +6118,32 @@
     <hyperlink ref="E7" r:id="rId21"/>
     <hyperlink ref="E9" r:id="rId22"/>
     <hyperlink ref="E10" r:id="rId23"/>
+    <hyperlink ref="E38" r:id="rId24"/>
+    <hyperlink ref="E40" r:id="rId25"/>
+    <hyperlink ref="E41" r:id="rId26"/>
+    <hyperlink ref="E42" r:id="rId27"/>
+    <hyperlink ref="E43" r:id="rId28"/>
+    <hyperlink ref="E44" r:id="rId29"/>
+    <hyperlink ref="E45" r:id="rId30"/>
+    <hyperlink ref="E46" r:id="rId31"/>
+    <hyperlink ref="E47" r:id="rId32"/>
+    <hyperlink ref="E48" r:id="rId33"/>
+    <hyperlink ref="E49" r:id="rId34"/>
+    <hyperlink ref="E50" r:id="rId35"/>
+    <hyperlink ref="E51" r:id="rId36"/>
+    <hyperlink ref="E52" r:id="rId37"/>
+    <hyperlink ref="E53" r:id="rId38"/>
+    <hyperlink ref="E55" r:id="rId39"/>
+    <hyperlink ref="E56" r:id="rId40"/>
+    <hyperlink ref="E58" r:id="rId41"/>
+    <hyperlink ref="E59" r:id="rId42"/>
+    <hyperlink ref="E60" r:id="rId43"/>
+    <hyperlink ref="E61" r:id="rId44"/>
+    <hyperlink ref="E62" r:id="rId45"/>
+    <hyperlink ref="E63" r:id="rId46"/>
+    <hyperlink ref="E64" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>